--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/amma_station_configuration_extended.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/amma_station_configuration_extended.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ68"/>
+  <dimension ref="A1:AR68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +644,11 @@
           <t>file</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>inventory</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -652,7 +656,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0-20000-0-62641</t>
+          <t>0-20000-0-62640</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -662,14 +666,14 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>62641</v>
+        <v>62640</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PORT SUDAN</t>
+          <t>ABU HAMED</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -678,17 +682,17 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>37.21666666666667</v>
+        <v>33.31666666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>19.58333333333333</v>
+        <v>19.53333333333333</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>20060208</v>
+        <v>20060103</v>
       </c>
       <c r="O2" t="n">
-        <v>20060724</v>
+        <v>20060905</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -709,7 +713,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Sawakin</t>
+          <t>Barbar</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
@@ -742,18 +746,23 @@
         </is>
       </c>
       <c r="AM2" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="n">
-        <v>34.4</v>
+        <v>166.8</v>
       </c>
       <c r="AP2" t="n">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>62641_amma.csv</t>
+          <t>62640_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -763,7 +772,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0-20000-0-64450</t>
+          <t>0-20000-0-65046</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -773,14 +782,14 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>64450</v>
+        <v>65046</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BRAZZAVILLE /MAYA-MAYA</t>
+          <t>KANO</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -789,17 +798,17 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>15.25</v>
+        <v>8.533333333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.25</v>
+        <v>12.05</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>20060101</v>
+        <v>20060717</v>
       </c>
       <c r="O3" t="n">
-        <v>20061028</v>
+        <v>20061005</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -816,11 +825,11 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Brazzaville</t>
+          <t>Kano</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -853,18 +862,23 @@
         </is>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="AP3" t="n">
-        <v>316</v>
+        <v>472.5</v>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>64450_amma.csv</t>
+          <t>65046_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -874,7 +888,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0-20000-0-67005</t>
+          <t>0-20000-0-61226</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -884,14 +898,14 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>67005</v>
+        <v>61226</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PAMANDZI (MAYOTTE)</t>
+          <t>GAO</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -900,17 +914,17 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>45.28277777777777</v>
+        <v>-0.05</v>
       </c>
       <c r="L4" t="n">
-        <v>-12.80555555555556</v>
+        <v>16.26666666666667</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>20060206</v>
+        <v>20060104</v>
       </c>
       <c r="O4" t="n">
-        <v>20061107</v>
+        <v>20060317</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -927,11 +941,11 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Dzaoudzi</t>
+          <t>Gao</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -964,18 +978,23 @@
         </is>
       </c>
       <c r="AM4" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="n">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="AP4" t="n">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>67005_amma.csv</t>
+          <t>61226_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -985,7 +1004,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0-20000-0-64400</t>
+          <t>0-20000-0-67781</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -995,14 +1014,14 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>64400</v>
+        <v>67781</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>POINTE-NOIRE</t>
+          <t>MUTOKO</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -1011,17 +1030,17 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>11.88166666666667</v>
+        <v>32.21666666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>-4.804444444444444</v>
+        <v>-17.41666666666667</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>20060104</v>
+        <v>20060619</v>
       </c>
       <c r="O5" t="n">
-        <v>20061219</v>
+        <v>20061224</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1038,11 +1057,11 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Loandjili</t>
+          <t>Mutoko</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
@@ -1075,18 +1094,23 @@
         </is>
       </c>
       <c r="AM5" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>5.1</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>1244</v>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>64400_amma.csv</t>
+          <t>67781_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1120,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0-20000-0-62721</t>
+          <t>0-20000-0-62641</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1106,14 +1130,14 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>62721</v>
+        <v>62641</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>KHARTOUM</t>
+          <t>PORT SUDAN</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1122,17 +1146,17 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>32.55</v>
+        <v>37.21666666666667</v>
       </c>
       <c r="L6" t="n">
-        <v>15.6</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>20060115</v>
+        <v>20060208</v>
       </c>
       <c r="O6" t="n">
-        <v>20061224</v>
+        <v>20060724</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -1153,7 +1177,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Khartoum</t>
+          <t>Sawakin</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -1186,18 +1210,23 @@
         </is>
       </c>
       <c r="AM6" t="n">
-        <v>5.4</v>
+        <v>27.4</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>3.9</v>
+        <v>34.4</v>
       </c>
       <c r="AP6" t="n">
-        <v>380</v>
+        <v>42</v>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>62721_amma.csv</t>
+          <t>62641_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1236,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0-20000-0-08594</t>
+          <t>0-20000-0-67881</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1217,14 +1246,14 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>8594</v>
+        <v>67881</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SAL</t>
+          <t>RUSAPE</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1233,17 +1262,17 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-22.94888888888889</v>
+        <v>32.13333333333333</v>
       </c>
       <c r="L7" t="n">
-        <v>16.74194444444445</v>
+        <v>-18.53333333333333</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>20060504</v>
+        <v>20060630</v>
       </c>
       <c r="O7" t="n">
-        <v>20060929</v>
+        <v>20060804</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1260,11 +1289,11 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Santa Maria</t>
+          <t>Rusape</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
@@ -1297,18 +1326,23 @@
         </is>
       </c>
       <c r="AM7" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>15.3</v>
+        <v>1.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>55.74</v>
+        <v>1430</v>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>08594_amma.csv</t>
+          <t>67881_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1352,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0-20000-0-68032</t>
+          <t>0-20000-0-65387</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1328,14 +1362,14 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>68032</v>
+        <v>65387</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>MAUN</t>
+          <t>LOME</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1344,17 +1378,17 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.41666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="L8" t="n">
-        <v>-19.98333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>20060506</v>
+        <v>20060521</v>
       </c>
       <c r="O8" t="n">
-        <v>20060918</v>
+        <v>20061028</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1371,11 +1405,11 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Maun</t>
+          <t>Aflao</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -1408,18 +1442,23 @@
         </is>
       </c>
       <c r="AM8" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="n">
-        <v>0.5</v>
+        <v>8.6</v>
       </c>
       <c r="AP8" t="n">
-        <v>900</v>
+        <v>25</v>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>68032_amma.csv</t>
+          <t>65387_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1468,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0-20000-0-61415</t>
+          <t>0-20000-0-67005</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1439,14 +1478,14 @@
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>61415</v>
+        <v>67005</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NOUADHIBOU</t>
+          <t>PAMANDZI (MAYOTTE)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1455,17 +1494,17 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-17.03638888888889</v>
+        <v>45.28277777777777</v>
       </c>
       <c r="L9" t="n">
-        <v>20.92027777777778</v>
+        <v>-12.80555555555556</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>20060315</v>
+        <v>20060206</v>
       </c>
       <c r="O9" t="n">
-        <v>20061028</v>
+        <v>20061107</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1482,11 +1521,11 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Nouadhibou</t>
+          <t>Dzaoudzi</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
@@ -1519,18 +1558,23 @@
         </is>
       </c>
       <c r="AM9" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>61415_amma.csv</t>
+          <t>67005_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1584,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0-20000-0-61226</t>
+          <t>0-20000-0-62760</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1550,14 +1594,14 @@
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>61226</v>
+        <v>62760</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>GAO</t>
+          <t>EL FASHER</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1566,17 +1610,17 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.05</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="L10" t="n">
-        <v>16.26666666666667</v>
+        <v>13.61666666666667</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>20060104</v>
+        <v>20060103</v>
       </c>
       <c r="O10" t="n">
-        <v>20060317</v>
+        <v>20061022</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1593,11 +1637,11 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Gao</t>
+          <t>Umm Kaddadah</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
@@ -1630,18 +1674,23 @@
         </is>
       </c>
       <c r="AM10" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="n">
-        <v>0.4</v>
+        <v>148.3</v>
       </c>
       <c r="AP10" t="n">
-        <v>260</v>
+        <v>730</v>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>61226_amma.csv</t>
+          <t>62760_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1700,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0-20000-0-62730</t>
+          <t>0-20000-0-62650</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1661,14 +1710,14 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>62730</v>
+        <v>62650</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>KASSALA</t>
+          <t>DONGOLA</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1677,17 +1726,17 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>36.4</v>
+        <v>30.48333333333333</v>
       </c>
       <c r="L11" t="n">
-        <v>15.46666666666667</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
         <v>20060103</v>
       </c>
       <c r="O11" t="n">
-        <v>20060806</v>
+        <v>20061224</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1708,7 +1757,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Kassala</t>
+          <t>Marawi</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
@@ -1741,18 +1790,23 @@
         </is>
       </c>
       <c r="AM11" t="n">
-        <v>26.9</v>
+        <v>0.8</v>
       </c>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="n">
-        <v>25.9</v>
+        <v>159.6</v>
       </c>
       <c r="AP11" t="n">
-        <v>500</v>
+        <v>226</v>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>62730_amma.csv</t>
+          <t>62650_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1816,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0-20000-0-62650</t>
+          <t>0-20000-0-61090</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1772,14 +1826,14 @@
         <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>62650</v>
+        <v>61090</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>DONGOLA</t>
+          <t>ZINDER</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1788,17 +1842,17 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>30.48333333333333</v>
+        <v>8.983333333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>19.16666666666667</v>
+        <v>13.78333333333333</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>20060103</v>
+        <v>20061201</v>
       </c>
       <c r="O12" t="n">
-        <v>20061224</v>
+        <v>20061231</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1815,11 +1869,11 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Marawi</t>
+          <t>Zinder</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
@@ -1852,18 +1906,23 @@
         </is>
       </c>
       <c r="AM12" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="n">
-        <v>159.6</v>
+        <v>2.2</v>
       </c>
       <c r="AP12" t="n">
-        <v>226</v>
+        <v>453</v>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>62650_amma.csv</t>
+          <t>61090_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1932,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0-20000-0-62760</t>
+          <t>0-20000-0-64450</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1883,14 +1942,14 @@
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>62760</v>
+        <v>64450</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>EL FASHER</t>
+          <t>BRAZZAVILLE /MAYA-MAYA</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1899,17 +1958,17 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>25.33333333333333</v>
+        <v>15.25</v>
       </c>
       <c r="L13" t="n">
-        <v>13.61666666666667</v>
+        <v>-4.25</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>20060103</v>
+        <v>20060101</v>
       </c>
       <c r="O13" t="n">
-        <v>20061022</v>
+        <v>20061028</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1926,11 +1985,11 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Umm Kaddadah</t>
+          <t>Brazzaville</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -1963,18 +2022,23 @@
         </is>
       </c>
       <c r="AM13" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="n">
-        <v>148.3</v>
+        <v>4</v>
       </c>
       <c r="AP13" t="n">
-        <v>730</v>
+        <v>316</v>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>62760_amma.csv</t>
+          <t>64450_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -1984,7 +2048,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0-20000-0-64458</t>
+          <t>0-20000-0-65202</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1994,14 +2058,14 @@
         <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>64458</v>
+        <v>65202</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>OUESSO</t>
+          <t>LAGOS/OSHODI</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -2010,17 +2074,17 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>16.05</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="L14" t="n">
-        <v>1.616666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>20060101</v>
+        <v>20060104</v>
       </c>
       <c r="O14" t="n">
-        <v>20061228</v>
+        <v>20061219</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -2037,11 +2101,11 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Ouesso</t>
+          <t>Lagos</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -2074,18 +2138,23 @@
         </is>
       </c>
       <c r="AM14" t="n">
-        <v>0.4</v>
+        <v>14.4</v>
       </c>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="n">
-        <v>0.7</v>
+        <v>19.4</v>
       </c>
       <c r="AP14" t="n">
-        <v>350</v>
+        <v>39.3</v>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>64458_amma.csv</t>
+          <t>65202_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2164,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0-20000-0-62640</t>
+          <t>0-20000-0-62721</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -2105,14 +2174,14 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>62640</v>
+        <v>62721</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ABU HAMED</t>
+          <t>KHARTOUM</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -2121,17 +2190,17 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>33.31666666666667</v>
+        <v>32.55</v>
       </c>
       <c r="L15" t="n">
-        <v>19.53333333333333</v>
+        <v>15.6</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>20060103</v>
+        <v>20060115</v>
       </c>
       <c r="O15" t="n">
-        <v>20060905</v>
+        <v>20061224</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2152,7 +2221,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Barbar</t>
+          <t>Khartoum</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
@@ -2185,18 +2254,23 @@
         </is>
       </c>
       <c r="AM15" t="n">
-        <v>27.1</v>
+        <v>5.4</v>
       </c>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="n">
-        <v>166.8</v>
+        <v>3.9</v>
       </c>
       <c r="AP15" t="n">
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>62640_amma.csv</t>
+          <t>62721_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2280,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0-20000-0-67781</t>
+          <t>0-20000-0-62730</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2216,14 +2290,14 @@
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>67781</v>
+        <v>62730</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>MUTOKO</t>
+          <t>KASSALA</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -2232,17 +2306,17 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>32.21666666666667</v>
+        <v>36.4</v>
       </c>
       <c r="L16" t="n">
-        <v>-17.41666666666667</v>
+        <v>15.46666666666667</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>20060619</v>
+        <v>20060103</v>
       </c>
       <c r="O16" t="n">
-        <v>20061224</v>
+        <v>20060806</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2259,11 +2333,11 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>Mutoko</t>
+          <t>Kassala</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
@@ -2296,18 +2370,23 @@
         </is>
       </c>
       <c r="AM16" t="n">
-        <v>4.2</v>
+        <v>26.9</v>
       </c>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="n">
-        <v>5.1</v>
+        <v>25.9</v>
       </c>
       <c r="AP16" t="n">
-        <v>1244</v>
+        <v>500</v>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>67781_amma.csv</t>
+          <t>62730_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2396,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0-20000-0-67095</t>
+          <t>0-20000-0-68032</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -2327,14 +2406,14 @@
         <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>67095</v>
+        <v>68032</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>TOAMASINA</t>
+          <t>MAUN</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -2343,17 +2422,17 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>49.4</v>
+        <v>23.41666666666667</v>
       </c>
       <c r="L17" t="n">
-        <v>-18.11666666666667</v>
+        <v>-19.98333333333333</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>20060103</v>
+        <v>20060506</v>
       </c>
       <c r="O17" t="n">
-        <v>20061231</v>
+        <v>20060918</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2370,11 +2449,11 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Toamasina</t>
+          <t>Maun</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
@@ -2407,18 +2486,23 @@
         </is>
       </c>
       <c r="AM17" t="n">
-        <v>17.7</v>
+        <v>0.5</v>
       </c>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="n">
-        <v>18.6</v>
+        <v>0.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>6</v>
+        <v>900</v>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>67095_amma.csv</t>
+          <t>68032_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -2428,7 +2512,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0-20000-0-64500</t>
+          <t>0-20000-0-61415</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2438,14 +2522,14 @@
         <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>64500</v>
+        <v>61415</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>LIBREVILLE</t>
+          <t>NOUADHIBOU</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2454,17 +2538,17 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>9.416666666666666</v>
+        <v>-17.03638888888889</v>
       </c>
       <c r="L18" t="n">
-        <v>0.45</v>
+        <v>20.92027777777778</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>20060101</v>
+        <v>20060315</v>
       </c>
       <c r="O18" t="n">
-        <v>20061231</v>
+        <v>20061028</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2481,11 +2565,11 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Libreville</t>
+          <t>Nouadhibou</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -2518,18 +2602,23 @@
         </is>
       </c>
       <c r="AM18" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="n">
-        <v>8.6</v>
+        <v>5.1</v>
       </c>
       <c r="AP18" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>64500_amma.csv</t>
+          <t>61415_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2628,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0-20000-0-65046</t>
+          <t>0-20000-0-67095</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2549,14 +2638,14 @@
         <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>65046</v>
+        <v>67095</v>
       </c>
       <c r="F19" t="n">
         <v>3</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>KANO</t>
+          <t>TOAMASINA</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2565,17 +2654,17 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.533333333333333</v>
+        <v>49.4</v>
       </c>
       <c r="L19" t="n">
-        <v>12.05</v>
+        <v>-18.11666666666667</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>20060717</v>
+        <v>20060103</v>
       </c>
       <c r="O19" t="n">
-        <v>20061005</v>
+        <v>20061231</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2592,11 +2681,11 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Kano</t>
+          <t>Toamasina</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -2629,18 +2718,23 @@
         </is>
       </c>
       <c r="AM19" t="n">
-        <v>1.5</v>
+        <v>17.7</v>
       </c>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="n">
-        <v>6.2</v>
+        <v>18.6</v>
       </c>
       <c r="AP19" t="n">
-        <v>472.5</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>65046_amma.csv</t>
+          <t>67095_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2744,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0-20000-0-61902</t>
+          <t>0-20000-0-64500</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2660,14 +2754,14 @@
         <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>61902</v>
+        <v>64500</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>WIDE AWAKE FIELD (ASCENSION IS.)</t>
+          <t>LIBREVILLE</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2676,17 +2770,17 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>-14.40555555555556</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="L20" t="n">
-        <v>-7.97</v>
+        <v>0.45</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>20060503</v>
+        <v>20060101</v>
       </c>
       <c r="O20" t="n">
-        <v>20060929</v>
+        <v>20061231</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2703,11 +2797,11 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Libreville</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -2740,20 +2834,23 @@
         </is>
       </c>
       <c r="AM20" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO20" t="n">
+        <v>8.6</v>
       </c>
       <c r="AP20" t="n">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>61902_amma.csv</t>
+          <t>64500_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2860,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0-20000-0-67002</t>
+          <t>0-20300-0-62010</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2773,14 +2870,14 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>67002</v>
+        <v>62010</v>
       </c>
       <c r="F21" t="n">
         <v>3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>HAHAYA INT. AIRPORT</t>
+          <t>TRIPOLI INTL ARPT</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2789,17 +2886,17 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>43.26666666666667</v>
+        <v>13.1667</v>
       </c>
       <c r="L21" t="n">
-        <v>-11.53333333333333</v>
+        <v>32.6833</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>20060101</v>
+        <v>20060901</v>
       </c>
       <c r="O21" t="n">
-        <v>20061230</v>
+        <v>20060930</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2816,11 +2913,11 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Moroni</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
@@ -2853,18 +2950,23 @@
         </is>
       </c>
       <c r="AM21" t="n">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="n">
-        <v>23.5</v>
+        <v>22.6</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>67002_amma.csv</t>
+          <t>62010_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -2874,7 +2976,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0-20000-0-67881</t>
+          <t>0-20000-0-64400</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2884,14 +2986,14 @@
         <v>21</v>
       </c>
       <c r="E22" t="n">
-        <v>67881</v>
+        <v>64400</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>RUSAPE</t>
+          <t>POINTE-NOIRE</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -2900,17 +3002,17 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>32.13333333333333</v>
+        <v>11.88166666666667</v>
       </c>
       <c r="L22" t="n">
-        <v>-18.53333333333333</v>
+        <v>-4.804444444444444</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>20060630</v>
+        <v>20060104</v>
       </c>
       <c r="O22" t="n">
-        <v>20060804</v>
+        <v>20061219</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2927,11 +3029,11 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Rusape</t>
+          <t>Loandjili</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
@@ -2964,18 +3066,23 @@
         </is>
       </c>
       <c r="AM22" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="n">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP22" t="n">
-        <v>1430</v>
+        <v>19</v>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>67881_amma.csv</t>
+          <t>64400_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -2985,7 +3092,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0-20300-0-62010</t>
+          <t>0-20000-0-64750</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2995,14 +3102,14 @@
         <v>22</v>
       </c>
       <c r="E23" t="n">
-        <v>62010</v>
+        <v>64750</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>TRIPOLI INTL ARPT</t>
+          <t>SARH</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -3011,17 +3118,17 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>13.1667</v>
+        <v>18.38333333333333</v>
       </c>
       <c r="L23" t="n">
-        <v>32.6833</v>
+        <v>9.15</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>20060901</v>
+        <v>20060105</v>
       </c>
       <c r="O23" t="n">
-        <v>20060930</v>
+        <v>20061231</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3038,11 +3145,11 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Sarh</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -3075,18 +3182,23 @@
         </is>
       </c>
       <c r="AM23" t="n">
-        <v>6.5</v>
+        <v>0.4</v>
       </c>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="n">
-        <v>22.6</v>
+        <v>0.4</v>
       </c>
       <c r="AP23" t="n">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>62010_amma.csv</t>
+          <t>64750_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3208,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0-20000-0-61090</t>
+          <t>0-20000-0-64458</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3106,14 +3218,14 @@
         <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>61090</v>
+        <v>64458</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ZINDER</t>
+          <t>OUESSO</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3122,17 +3234,17 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>8.983333333333333</v>
+        <v>16.05</v>
       </c>
       <c r="L24" t="n">
-        <v>13.78333333333333</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>20061201</v>
+        <v>20060101</v>
       </c>
       <c r="O24" t="n">
-        <v>20061231</v>
+        <v>20061228</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -3149,11 +3261,11 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>Zinder</t>
+          <t>Ouesso</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -3186,18 +3298,23 @@
         </is>
       </c>
       <c r="AM24" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="AP24" t="n">
-        <v>453</v>
+        <v>350</v>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>61090_amma.csv</t>
+          <t>64458_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -3311,6 +3428,11 @@
           <t>61831_amma.csv</t>
         </is>
       </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3318,7 +3440,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0-20000-0-64750</t>
+          <t>0-20000-0-08594</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3328,14 +3450,14 @@
         <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>64750</v>
+        <v>8594</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SARH</t>
+          <t>SAL</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3344,17 +3466,17 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>18.38333333333333</v>
+        <v>-22.94888888888889</v>
       </c>
       <c r="L26" t="n">
-        <v>9.15</v>
+        <v>16.74194444444445</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>20060105</v>
+        <v>20060504</v>
       </c>
       <c r="O26" t="n">
-        <v>20061231</v>
+        <v>20060929</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -3371,11 +3493,11 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Sarh</t>
+          <t>Santa Maria</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
@@ -3408,18 +3530,23 @@
         </is>
       </c>
       <c r="AM26" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="n">
-        <v>0.4</v>
+        <v>15.3</v>
       </c>
       <c r="AP26" t="n">
-        <v>365</v>
+        <v>55.74</v>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>64750_amma.csv</t>
+          <t>08594_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3556,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0-20000-0-60656</t>
+          <t>0-20000-0-67002</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3439,14 +3566,14 @@
         <v>26</v>
       </c>
       <c r="E27" t="n">
-        <v>60656</v>
+        <v>67002</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>TINDOUF</t>
+          <t>HAHAYA INT. AIRPORT</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3455,17 +3582,17 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>-8.169166666666666</v>
+        <v>43.26666666666667</v>
       </c>
       <c r="L27" t="n">
-        <v>27.70416666666667</v>
+        <v>-11.53333333333333</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>20060501</v>
+        <v>20060101</v>
       </c>
       <c r="O27" t="n">
-        <v>20060930</v>
+        <v>20061230</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -3482,11 +3609,11 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Tiznit</t>
+          <t>Moroni</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
@@ -3519,18 +3646,23 @@
         </is>
       </c>
       <c r="AM27" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="n">
-        <v>270</v>
+        <v>23.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>449</v>
+        <v>29</v>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>60656_amma.csv</t>
+          <t>67002_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0-20000-0-63894</t>
+          <t>0-20000-0-61902</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3550,14 +3682,14 @@
         <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>63894</v>
+        <v>61902</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>DAR ES SALAAM INT</t>
+          <t>WIDE AWAKE FIELD (ASCENSION IS.)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3566,14 +3698,14 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>39.2075</v>
+        <v>-14.40555555555556</v>
       </c>
       <c r="L28" t="n">
-        <v>-6.876111111111111</v>
+        <v>-7.97</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>20060607</v>
+        <v>20060503</v>
       </c>
       <c r="O28" t="n">
         <v>20060929</v>
@@ -3593,11 +3725,11 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>Magomeni</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
@@ -3630,18 +3762,25 @@
         </is>
       </c>
       <c r="AM28" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="n">
-        <v>9.5</v>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP28" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>63894_amma.csv</t>
+          <t>61902_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -3755,6 +3894,11 @@
           <t>65510_amma.csv</t>
         </is>
       </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3762,7 +3906,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0-20000-0-65387</t>
+          <t>0-20000-0-63894</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3772,14 +3916,14 @@
         <v>29</v>
       </c>
       <c r="E30" t="n">
-        <v>65387</v>
+        <v>63894</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>LOME</t>
+          <t>DAR ES SALAAM INT</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -3788,17 +3932,17 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.25</v>
+        <v>39.2075</v>
       </c>
       <c r="L30" t="n">
-        <v>6.166666666666667</v>
+        <v>-6.876111111111111</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>20060521</v>
+        <v>20060607</v>
       </c>
       <c r="O30" t="n">
-        <v>20061028</v>
+        <v>20060929</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -3815,11 +3959,11 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>Aflao</t>
+          <t>Magomeni</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
@@ -3852,18 +3996,23 @@
         </is>
       </c>
       <c r="AM30" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="n">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>65387_amma.csv</t>
+          <t>63894_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -3873,7 +4022,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0-20000-0-60760</t>
+          <t>0-20000-0-60360</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3883,14 +4032,14 @@
         <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>60760</v>
+        <v>60360</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>TOZEUR</t>
+          <t>ANNABA</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -3899,17 +4048,17 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.166666666666666</v>
+        <v>7.816666666666666</v>
       </c>
       <c r="L31" t="n">
-        <v>33.91666666666666</v>
+        <v>36.83333333333334</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>20060501</v>
+        <v>20060101</v>
       </c>
       <c r="O31" t="n">
-        <v>20060930</v>
+        <v>20061231</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3926,11 +4075,11 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Tawzar</t>
+          <t>Tabarqah</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -3963,18 +4112,23 @@
         </is>
       </c>
       <c r="AM31" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="n">
-        <v>3.4</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="AP31" t="n">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>60760_amma.csv</t>
+          <t>60360_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -3984,7 +4138,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0-20000-0-60360</t>
+          <t>0-20000-0-60656</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3994,14 +4148,14 @@
         <v>31</v>
       </c>
       <c r="E32" t="n">
-        <v>60360</v>
+        <v>60656</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ANNABA</t>
+          <t>TINDOUF</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -4010,17 +4164,17 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>7.816666666666666</v>
+        <v>-8.169166666666666</v>
       </c>
       <c r="L32" t="n">
-        <v>36.83333333333334</v>
+        <v>27.70416666666667</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>20060101</v>
+        <v>20060501</v>
       </c>
       <c r="O32" t="n">
-        <v>20061231</v>
+        <v>20060930</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -4041,7 +4195,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Tabarqah</t>
+          <t>Tiznit</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
@@ -4074,18 +4228,23 @@
         </is>
       </c>
       <c r="AM32" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="n">
-        <v>87.09999999999999</v>
+        <v>270</v>
       </c>
       <c r="AP32" t="n">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>60360_amma.csv</t>
+          <t>60656_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4254,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0-20000-0-61901</t>
+          <t>0-20000-0-63450</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -4105,14 +4264,14 @@
         <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>61901</v>
+        <v>63450</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ST. HELENA IS.</t>
+          <t>ADDIS ABABA-BOLE</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -4121,17 +4280,17 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>-5.667222222222223</v>
+        <v>38.75</v>
       </c>
       <c r="L33" t="n">
-        <v>-15.94194444444444</v>
+        <v>9.033333333333331</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>20060501</v>
+        <v>20060106</v>
       </c>
       <c r="O33" t="n">
-        <v>20060929</v>
+        <v>20061228</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -4148,11 +4307,11 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>198</v>
+        <v>68</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Addis Abeba</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -4185,20 +4344,23 @@
         </is>
       </c>
       <c r="AM33" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO33" t="n">
+        <v>0.6</v>
       </c>
       <c r="AP33" t="n">
-        <v>436</v>
+        <v>2354</v>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>61901_amma.csv</t>
+          <t>63450_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4370,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0-20000-0-60571</t>
+          <t>0-20000-0-62414</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -4218,14 +4380,14 @@
         <v>33</v>
       </c>
       <c r="E34" t="n">
-        <v>60571</v>
+        <v>62414</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>BECHAR</t>
+          <t>ASSWAN</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4234,10 +4396,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.252222222222222</v>
+        <v>32.82</v>
       </c>
       <c r="L34" t="n">
-        <v>31.65416666666667</v>
+        <v>23.96444444444444</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
@@ -4261,11 +4423,11 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Mrirt</t>
+          <t>Aswan</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
@@ -4298,18 +4460,23 @@
         </is>
       </c>
       <c r="AM34" t="n">
-        <v>17.7</v>
+        <v>4.1</v>
       </c>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="n">
-        <v>359</v>
+        <v>17.8</v>
       </c>
       <c r="AP34" t="n">
-        <v>816</v>
+        <v>194</v>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>60571_amma.csv</t>
+          <t>62414_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -4423,6 +4590,11 @@
           <t>60630_amma.csv</t>
         </is>
       </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4430,7 +4602,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0-20000-0-65202</t>
+          <t>0-20000-0-60760</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -4440,14 +4612,14 @@
         <v>35</v>
       </c>
       <c r="E36" t="n">
-        <v>65202</v>
+        <v>60760</v>
       </c>
       <c r="F36" t="n">
         <v>3</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>LAGOS/OSHODI</t>
+          <t>TOZEUR</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4456,17 +4628,17 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>3.383333333333333</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="L36" t="n">
-        <v>6.5</v>
+        <v>33.91666666666666</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>20060104</v>
+        <v>20060501</v>
       </c>
       <c r="O36" t="n">
-        <v>20061219</v>
+        <v>20060930</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4483,11 +4655,11 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>Lagos</t>
+          <t>Tawzar</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
@@ -4520,18 +4692,23 @@
         </is>
       </c>
       <c r="AM36" t="n">
-        <v>14.4</v>
+        <v>0.5</v>
       </c>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="n">
-        <v>19.4</v>
+        <v>3.4</v>
       </c>
       <c r="AP36" t="n">
-        <v>39.3</v>
+        <v>86</v>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>65202_amma.csv</t>
+          <t>60760_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4718,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0-20000-0-62423</t>
+          <t>0-20000-0-62403</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -4551,14 +4728,14 @@
         <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>62423</v>
+        <v>62403</v>
       </c>
       <c r="F37" t="n">
         <v>3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>FARAFRA</t>
+          <t>SOUTH OF VALLEY UNIVERSITY</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -4567,10 +4744,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>27.98916666666666</v>
+        <v>32.74666666666667</v>
       </c>
       <c r="L37" t="n">
-        <v>27.05833333333333</v>
+        <v>26.20027777777777</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
@@ -4598,7 +4775,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Matay</t>
+          <t>Qena</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -4631,18 +4808,23 @@
         </is>
       </c>
       <c r="AM37" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="n">
-        <v>313.1</v>
+        <v>4</v>
       </c>
       <c r="AP37" t="n">
-        <v>92.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>62423_amma.csv</t>
+          <t>62403_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4834,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0-20000-0-62403</t>
+          <t>0-20000-0-60155</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -4662,14 +4844,14 @@
         <v>37</v>
       </c>
       <c r="E38" t="n">
-        <v>62403</v>
+        <v>60155</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>SOUTH OF VALLEY UNIVERSITY</t>
+          <t>CASABLANCA</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -4678,14 +4860,14 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>32.74666666666667</v>
+        <v>-7.666666666666667</v>
       </c>
       <c r="L38" t="n">
-        <v>26.20027777777777</v>
+        <v>33.56666666666667</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>20060501</v>
+        <v>20060502</v>
       </c>
       <c r="O38" t="n">
         <v>20060930</v>
@@ -4705,11 +4887,11 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>Qena</t>
+          <t>Casablanca</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -4742,18 +4924,23 @@
         </is>
       </c>
       <c r="AM38" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="AP38" t="n">
-        <v>77.3</v>
+        <v>57</v>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>62403_amma.csv</t>
+          <t>60155_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4950,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0-20000-0-60155</t>
+          <t>0-20000-0-62306</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -4773,14 +4960,14 @@
         <v>38</v>
       </c>
       <c r="E39" t="n">
-        <v>60155</v>
+        <v>62306</v>
       </c>
       <c r="F39" t="n">
         <v>3</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CASABLANCA</t>
+          <t>MERSA MATRUH</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -4789,14 +4976,14 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>-7.666666666666667</v>
+        <v>27.22166666666666</v>
       </c>
       <c r="L39" t="n">
-        <v>33.56666666666667</v>
+        <v>31.32527777777777</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>20060502</v>
+        <v>20060501</v>
       </c>
       <c r="O39" t="n">
         <v>20060930</v>
@@ -4816,11 +5003,11 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>Casablanca</t>
+          <t>Marsa Matruh</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -4857,14 +5044,19 @@
       </c>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="AP39" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>60155_amma.csv</t>
+          <t>62306_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -4874,7 +5066,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0-20000-0-62306</t>
+          <t>0-20000-0-62423</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4884,14 +5076,14 @@
         <v>39</v>
       </c>
       <c r="E40" t="n">
-        <v>62306</v>
+        <v>62423</v>
       </c>
       <c r="F40" t="n">
         <v>3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>MERSA MATRUH</t>
+          <t>FARAFRA</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -4900,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>27.22166666666666</v>
+        <v>27.98916666666666</v>
       </c>
       <c r="L40" t="n">
-        <v>31.32527777777777</v>
+        <v>27.05833333333333</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
@@ -4931,7 +5123,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>Marsa Matruh</t>
+          <t>Matay</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
@@ -4964,18 +5156,23 @@
         </is>
       </c>
       <c r="AM40" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="n">
-        <v>2.6</v>
+        <v>313.1</v>
       </c>
       <c r="AP40" t="n">
-        <v>30</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>62306_amma.csv</t>
+          <t>62423_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -4985,7 +5182,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0-20000-0-67083</t>
+          <t>0-20000-0-61901</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4995,14 +5192,14 @@
         <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>67083</v>
+        <v>61901</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ANTANANARIVO/IVATO</t>
+          <t>ST. HELENA IS.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -5011,17 +5208,17 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>47.48333333333333</v>
+        <v>-5.667222222222223</v>
       </c>
       <c r="L41" t="n">
-        <v>-18.8</v>
+        <v>-15.94194444444444</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>20060502</v>
+        <v>20060501</v>
       </c>
       <c r="O41" t="n">
-        <v>20060930</v>
+        <v>20060929</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -5038,11 +5235,11 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>Antananarivo</t>
+          <t>None</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
@@ -5075,18 +5272,25 @@
         </is>
       </c>
       <c r="AM41" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="AN41" t="inlineStr"/>
-      <c r="AO41" t="n">
-        <v>13.5</v>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="AP41" t="n">
-        <v>1276</v>
+        <v>436</v>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>67083_amma.csv</t>
+          <t>61901_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5096,7 +5300,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0-20000-0-62414</t>
+          <t>0-20000-0-63741</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -5106,14 +5310,14 @@
         <v>41</v>
       </c>
       <c r="E42" t="n">
-        <v>62414</v>
+        <v>63741</v>
       </c>
       <c r="F42" t="n">
         <v>3</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ASSWAN</t>
+          <t>DAGORETTI CORNER</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5122,10 +5326,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>32.82</v>
+        <v>36.75972222222222</v>
       </c>
       <c r="L42" t="n">
-        <v>23.96444444444444</v>
+        <v>-1.301388888888889</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
@@ -5149,11 +5353,11 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>Aswan</t>
+          <t>Nairobi</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
@@ -5186,18 +5390,23 @@
         </is>
       </c>
       <c r="AM42" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="n">
-        <v>17.8</v>
+        <v>4.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>194</v>
+        <v>1639.26</v>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>62414_amma.csv</t>
+          <t>63741_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5416,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0-20000-0-63450</t>
+          <t>0-20000-0-60571</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -5217,14 +5426,14 @@
         <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>63450</v>
+        <v>60571</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ADDIS ABABA-BOLE</t>
+          <t>BECHAR</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5233,17 +5442,17 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>38.75</v>
+        <v>-2.252222222222222</v>
       </c>
       <c r="L43" t="n">
-        <v>9.033333333333331</v>
+        <v>31.65416666666667</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>20060106</v>
+        <v>20060501</v>
       </c>
       <c r="O43" t="n">
-        <v>20061228</v>
+        <v>20060930</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -5260,11 +5469,11 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>Addis Abeba</t>
+          <t>Mrirt</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
@@ -5297,18 +5506,23 @@
         </is>
       </c>
       <c r="AM43" t="n">
-        <v>0.4</v>
+        <v>17.7</v>
       </c>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="n">
-        <v>0.6</v>
+        <v>359</v>
       </c>
       <c r="AP43" t="n">
-        <v>2354</v>
+        <v>816</v>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>63450_amma.csv</t>
+          <t>60571_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5318,7 +5532,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0-20000-0-65503</t>
+          <t>0-20000-0-62378</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -5328,14 +5542,14 @@
         <v>43</v>
       </c>
       <c r="E44" t="n">
-        <v>65503</v>
+        <v>62378</v>
       </c>
       <c r="F44" t="n">
         <v>3</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>OUAGADOUGOU</t>
+          <t>HELWAN</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -5344,17 +5558,17 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.516666666666667</v>
+        <v>31.34916666666667</v>
       </c>
       <c r="L44" t="n">
-        <v>12.35</v>
+        <v>29.86277777777778</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>20060507</v>
+        <v>20060501</v>
       </c>
       <c r="O44" t="n">
-        <v>20061231</v>
+        <v>20060930</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -5371,11 +5585,11 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Ouagadougou</t>
+          <t>Gizeh</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
@@ -5408,18 +5622,23 @@
         </is>
       </c>
       <c r="AM44" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="n">
-        <v>2.3</v>
+        <v>19.1</v>
       </c>
       <c r="AP44" t="n">
-        <v>306</v>
+        <v>140.7</v>
       </c>
       <c r="AQ44" t="inlineStr">
         <is>
-          <t>65503_amma.csv</t>
+          <t>62378_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5429,7 +5648,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0-20000-0-62337</t>
+          <t>0-20000-0-67083</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -5439,14 +5658,14 @@
         <v>44</v>
       </c>
       <c r="E45" t="n">
-        <v>62337</v>
+        <v>67083</v>
       </c>
       <c r="F45" t="n">
         <v>3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>EL ARISH</t>
+          <t>ANTANANARIVO/IVATO</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -5455,14 +5674,14 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>33.83583333333333</v>
+        <v>47.48333333333333</v>
       </c>
       <c r="L45" t="n">
-        <v>31.07333333333333</v>
+        <v>-18.8</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>20060503</v>
+        <v>20060502</v>
       </c>
       <c r="O45" t="n">
         <v>20060930</v>
@@ -5482,11 +5701,11 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Ofaqim</t>
+          <t>Antananarivo</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -5519,18 +5738,23 @@
         </is>
       </c>
       <c r="AM45" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="n">
-        <v>79.7</v>
+        <v>13.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>31.8</v>
+        <v>1276</v>
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>62337_amma.csv</t>
+          <t>67083_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5540,7 +5764,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0-20000-0-62378</t>
+          <t>0-20000-0-62337</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -5550,14 +5774,14 @@
         <v>45</v>
       </c>
       <c r="E46" t="n">
-        <v>62378</v>
+        <v>62337</v>
       </c>
       <c r="F46" t="n">
         <v>3</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>HELWAN</t>
+          <t>EL ARISH</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -5566,14 +5790,14 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>31.34916666666667</v>
+        <v>33.83583333333333</v>
       </c>
       <c r="L46" t="n">
-        <v>29.86277777777778</v>
+        <v>31.07333333333333</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>20060501</v>
+        <v>20060503</v>
       </c>
       <c r="O46" t="n">
         <v>20060930</v>
@@ -5597,7 +5821,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>Gizeh</t>
+          <t>Ofaqim</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
@@ -5630,18 +5854,23 @@
         </is>
       </c>
       <c r="AM46" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="n">
-        <v>19.1</v>
+        <v>79.7</v>
       </c>
       <c r="AP46" t="n">
-        <v>140.7</v>
+        <v>31.8</v>
       </c>
       <c r="AQ46" t="inlineStr">
         <is>
-          <t>62378_amma.csv</t>
+          <t>62337_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR46" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5880,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0-20000-0-08589</t>
+          <t>0-20000-0-60018</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -5661,14 +5890,14 @@
         <v>46</v>
       </c>
       <c r="E47" t="n">
-        <v>8589</v>
+        <v>60018</v>
       </c>
       <c r="F47" t="n">
         <v>3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>PRAIA</t>
+          <t>TENERIFE-GUIMAR</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -5677,17 +5906,17 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>-23.48472222222222</v>
+        <v>-16.38222222222222</v>
       </c>
       <c r="L47" t="n">
-        <v>14.94111111111111</v>
+        <v>28.31833333333333</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>20060818</v>
+        <v>20060501</v>
       </c>
       <c r="O47" t="n">
-        <v>20060914</v>
+        <v>20060930</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -5704,11 +5933,11 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>Praia</t>
+          <t>Guimar</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -5741,18 +5970,23 @@
         </is>
       </c>
       <c r="AM47" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AP47" t="n">
-        <v>95.09999999999999</v>
+        <v>2368</v>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>08589_amma.csv</t>
+          <t>60018_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5762,7 +5996,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0-20000-0-61223</t>
+          <t>0-20000-0-65503</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -5772,14 +6006,14 @@
         <v>47</v>
       </c>
       <c r="E48" t="n">
-        <v>61223</v>
+        <v>65503</v>
       </c>
       <c r="F48" t="n">
         <v>3</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>TOMBOUCTOU</t>
+          <t>OUAGADOUGOU</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -5788,14 +6022,14 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>-3</v>
+        <v>-1.516666666666667</v>
       </c>
       <c r="L48" t="n">
-        <v>16.71666666666667</v>
+        <v>12.35</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>20060101</v>
+        <v>20060507</v>
       </c>
       <c r="O48" t="n">
         <v>20061231</v>
@@ -5815,11 +6049,11 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Tombouctou</t>
+          <t>Ouagadougou</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
@@ -5856,14 +6090,19 @@
       </c>
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="AP48" t="n">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="AQ48" t="inlineStr">
         <is>
-          <t>61223_amma.csv</t>
+          <t>65503_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR48" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5873,7 +6112,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0-20000-0-60018</t>
+          <t>0-20000-0-60680</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -5883,14 +6122,14 @@
         <v>48</v>
       </c>
       <c r="E49" t="n">
-        <v>60018</v>
+        <v>60680</v>
       </c>
       <c r="F49" t="n">
         <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>TENERIFE-GUIMAR</t>
+          <t>TAMANRASSET</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -5899,10 +6138,10 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>-16.38222222222222</v>
+        <v>5.452500000000001</v>
       </c>
       <c r="L49" t="n">
-        <v>28.31833333333333</v>
+        <v>22.82527777777777</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
@@ -5926,11 +6165,11 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Guimar</t>
+          <t>Arlit</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -5963,18 +6202,23 @@
         </is>
       </c>
       <c r="AM49" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="n">
-        <v>3.3</v>
+        <v>493.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>2368</v>
+        <v>1377</v>
       </c>
       <c r="AQ49" t="inlineStr">
         <is>
-          <t>60018_amma.csv</t>
+          <t>60680_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR49" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -5984,7 +6228,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0-20000-0-63741</t>
+          <t>0-20000-0-08589</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -5994,14 +6238,14 @@
         <v>49</v>
       </c>
       <c r="E50" t="n">
-        <v>63741</v>
+        <v>8589</v>
       </c>
       <c r="F50" t="n">
         <v>3</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>DAGORETTI CORNER</t>
+          <t>PRAIA</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6010,17 +6254,17 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>36.75972222222222</v>
+        <v>-23.48472222222222</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.301388888888889</v>
+        <v>14.94111111111111</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>20060501</v>
+        <v>20060818</v>
       </c>
       <c r="O50" t="n">
-        <v>20060930</v>
+        <v>20060914</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -6037,11 +6281,11 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>Nairobi</t>
+          <t>Praia</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
@@ -6074,18 +6318,23 @@
         </is>
       </c>
       <c r="AM50" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1639.26</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AQ50" t="inlineStr">
         <is>
-          <t>63741_amma.csv</t>
+          <t>08589_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR50" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -6095,7 +6344,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0-20000-0-64700</t>
+          <t>0-20000-0-60390</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -6105,14 +6354,14 @@
         <v>50</v>
       </c>
       <c r="E51" t="n">
-        <v>64700</v>
+        <v>60390</v>
       </c>
       <c r="F51" t="n">
         <v>3</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>NDJAMENA</t>
+          <t>DAR-EL-BEIDA</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -6121,17 +6370,17 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>15.03333333333333</v>
+        <v>3.216666666666667</v>
       </c>
       <c r="L51" t="n">
-        <v>12.13333333333333</v>
+        <v>36.69</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
         <v>20060101</v>
       </c>
       <c r="O51" t="n">
-        <v>20061217</v>
+        <v>20061231</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -6148,11 +6397,11 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Kousseri</t>
+          <t>Algiers</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -6185,18 +6434,23 @@
         </is>
       </c>
       <c r="AM51" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="n">
-        <v>5.7</v>
+        <v>18.4</v>
       </c>
       <c r="AP51" t="n">
-        <v>295</v>
+        <v>29</v>
       </c>
       <c r="AQ51" t="inlineStr">
         <is>
-          <t>64700_amma.csv</t>
+          <t>60390_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR51" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6460,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0-20000-0-60390</t>
+          <t>0-20000-0-64650</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -6216,14 +6470,14 @@
         <v>51</v>
       </c>
       <c r="E52" t="n">
-        <v>60390</v>
+        <v>64650</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>DAR-EL-BEIDA</t>
+          <t>BANGUI</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -6232,17 +6486,17 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>3.216666666666667</v>
+        <v>18.51666666666667</v>
       </c>
       <c r="L52" t="n">
-        <v>36.69</v>
+        <v>4.4</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>20060101</v>
+        <v>20060427</v>
       </c>
       <c r="O52" t="n">
-        <v>20061231</v>
+        <v>20061214</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -6259,11 +6513,11 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Algiers</t>
+          <t>Bangui</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -6296,18 +6550,23 @@
         </is>
       </c>
       <c r="AM52" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="n">
-        <v>18.4</v>
+        <v>7.9</v>
       </c>
       <c r="AP52" t="n">
-        <v>29</v>
+        <v>366</v>
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>60390_amma.csv</t>
+          <t>64650_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR52" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -6317,7 +6576,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0-20000-0-60680</t>
+          <t>0-20000-0-64870</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -6327,14 +6586,14 @@
         <v>52</v>
       </c>
       <c r="E53" t="n">
-        <v>60680</v>
+        <v>64870</v>
       </c>
       <c r="F53" t="n">
         <v>3</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>TAMANRASSET</t>
+          <t>NGAOUNDERE</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -6343,10 +6602,10 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>5.452500000000001</v>
+        <v>13.56666666666667</v>
       </c>
       <c r="L53" t="n">
-        <v>22.82527777777777</v>
+        <v>7.35</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
@@ -6370,11 +6629,11 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Arlit</t>
+          <t>Ngaoundere</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -6407,18 +6666,23 @@
         </is>
       </c>
       <c r="AM53" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="n">
-        <v>493.5</v>
+        <v>4</v>
       </c>
       <c r="AP53" t="n">
-        <v>1377</v>
+        <v>1104</v>
       </c>
       <c r="AQ53" t="inlineStr">
         <is>
-          <t>60680_amma.csv</t>
+          <t>64870_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR53" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -6428,7 +6692,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0-20000-0-64650</t>
+          <t>0-20000-0-61223</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -6438,14 +6702,14 @@
         <v>53</v>
       </c>
       <c r="E54" t="n">
-        <v>64650</v>
+        <v>61223</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>BANGUI</t>
+          <t>TOMBOUCTOU</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -6454,17 +6718,17 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>18.51666666666667</v>
+        <v>-3</v>
       </c>
       <c r="L54" t="n">
-        <v>4.4</v>
+        <v>16.71666666666667</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>20060427</v>
+        <v>20060101</v>
       </c>
       <c r="O54" t="n">
-        <v>20061214</v>
+        <v>20061231</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -6481,11 +6745,11 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Bangui</t>
+          <t>Tombouctou</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
@@ -6522,14 +6786,19 @@
       </c>
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="n">
-        <v>7.9</v>
+        <v>5.5</v>
       </c>
       <c r="AP54" t="n">
-        <v>366</v>
+        <v>264</v>
       </c>
       <c r="AQ54" t="inlineStr">
         <is>
-          <t>64650_amma.csv</t>
+          <t>61223_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR54" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -6539,7 +6808,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0-20000-0-61687</t>
+          <t>0-20000-0-64700</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -6549,14 +6818,14 @@
         <v>54</v>
       </c>
       <c r="E55" t="n">
-        <v>61687</v>
+        <v>64700</v>
       </c>
       <c r="F55" t="n">
         <v>3</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>TAMBACOUNDA</t>
+          <t>NDJAMENA</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -6565,17 +6834,17 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>-13.67972222222222</v>
+        <v>15.03333333333333</v>
       </c>
       <c r="L55" t="n">
-        <v>13.76972222222222</v>
+        <v>12.13333333333333</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>20060322</v>
+        <v>20060101</v>
       </c>
       <c r="O55" t="n">
-        <v>20061230</v>
+        <v>20061217</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -6592,11 +6861,11 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>Tambacounda</t>
+          <t>Kousseri</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -6629,18 +6898,23 @@
         </is>
       </c>
       <c r="AM55" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="n">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="AP55" t="n">
-        <v>48.68</v>
+        <v>295</v>
       </c>
       <c r="AQ55" t="inlineStr">
         <is>
-          <t>61687_amma.csv</t>
+          <t>64700_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR55" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -6650,7 +6924,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0-20000-0-64870</t>
+          <t>0-20000-0-60715</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -6660,14 +6934,14 @@
         <v>55</v>
       </c>
       <c r="E56" t="n">
-        <v>64870</v>
+        <v>60715</v>
       </c>
       <c r="F56" t="n">
         <v>3</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>NGAOUNDERE</t>
+          <t>TUNIS-CARTHAGE</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -6676,10 +6950,10 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>13.56666666666667</v>
+        <v>10.23333333333333</v>
       </c>
       <c r="L56" t="n">
-        <v>7.35</v>
+        <v>36.83333333333334</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
@@ -6703,11 +6977,11 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Ngaoundere</t>
+          <t>Aryanah</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
@@ -6740,18 +7014,23 @@
         </is>
       </c>
       <c r="AM56" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AP56" t="n">
         <v>4</v>
       </c>
-      <c r="AP56" t="n">
-        <v>1104</v>
-      </c>
       <c r="AQ56" t="inlineStr">
         <is>
-          <t>64870_amma.csv</t>
+          <t>60715_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR56" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -6865,6 +7144,11 @@
           <t>65578_amma.csv</t>
         </is>
       </c>
+      <c r="AR57" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6872,7 +7156,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0-20000-0-60715</t>
+          <t>0-20000-0-61687</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -6882,14 +7166,14 @@
         <v>57</v>
       </c>
       <c r="E58" t="n">
-        <v>60715</v>
+        <v>61687</v>
       </c>
       <c r="F58" t="n">
         <v>3</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>TUNIS-CARTHAGE</t>
+          <t>TAMBACOUNDA</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -6898,17 +7182,17 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>10.23333333333333</v>
+        <v>-13.67972222222222</v>
       </c>
       <c r="L58" t="n">
-        <v>36.83333333333334</v>
+        <v>13.76972222222222</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>20060501</v>
+        <v>20060322</v>
       </c>
       <c r="O58" t="n">
-        <v>20060930</v>
+        <v>20061230</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -6925,11 +7209,11 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>Aryanah</t>
+          <t>Tambacounda</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
@@ -6962,18 +7246,23 @@
         </is>
       </c>
       <c r="AM58" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AN58" t="inlineStr"/>
       <c r="AO58" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="AP58" t="n">
-        <v>4</v>
+        <v>48.68</v>
       </c>
       <c r="AQ58" t="inlineStr">
         <is>
-          <t>60715_amma.csv</t>
+          <t>61687_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR58" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7087,6 +7376,11 @@
           <t>61291_amma.csv</t>
         </is>
       </c>
+      <c r="AR59" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -7094,7 +7388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0-20000-0-65125</t>
+          <t>0-20000-0-61641</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -7104,14 +7398,14 @@
         <v>59</v>
       </c>
       <c r="E60" t="n">
-        <v>65125</v>
+        <v>61641</v>
       </c>
       <c r="F60" t="n">
         <v>3</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ABUJA</t>
+          <t>DAKAR/YOFF</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -7120,17 +7414,17 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>7</v>
+        <v>-17.5</v>
       </c>
       <c r="L60" t="n">
-        <v>9.25</v>
+        <v>14.73</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>20060608</v>
+        <v>20060101</v>
       </c>
       <c r="O60" t="n">
-        <v>20061226</v>
+        <v>20061231</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -7147,11 +7441,11 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Abuja</t>
+          <t>Dakar</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
@@ -7188,14 +7482,19 @@
       </c>
       <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="n">
-        <v>21.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AP60" t="n">
-        <v>343.1</v>
+        <v>24.49</v>
       </c>
       <c r="AQ60" t="inlineStr">
         <is>
-          <t>65125_amma.csv</t>
+          <t>61641_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR60" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7309,6 +7608,11 @@
           <t>61442_amma.csv</t>
         </is>
       </c>
+      <c r="AR61" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -7316,7 +7620,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0-20001-0-64910</t>
+          <t>0-20000-0-61024</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -7326,14 +7630,14 @@
         <v>61</v>
       </c>
       <c r="E62" t="n">
-        <v>64910</v>
+        <v>61024</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>DOUALA R.S.</t>
+          <t>AGADEZ</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -7342,17 +7646,17 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>9.699999999999999</v>
+        <v>7.983333333333333</v>
       </c>
       <c r="L62" t="n">
-        <v>4.016666666666667</v>
+        <v>16.96666666666667</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>20060209</v>
+        <v>20060120</v>
       </c>
       <c r="O62" t="n">
-        <v>20061220</v>
+        <v>20061010</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -7369,11 +7673,11 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Douala</t>
+          <t>Agadez</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
@@ -7406,18 +7710,23 @@
         </is>
       </c>
       <c r="AM62" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AN62" t="inlineStr"/>
       <c r="AO62" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="AP62" t="n">
-        <v>9</v>
+        <v>502</v>
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>64910_amma.csv</t>
+          <t>61024_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR62" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7427,7 +7736,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0-20000-0-65330</t>
+          <t>0-20001-0-64910</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -7437,14 +7746,14 @@
         <v>62</v>
       </c>
       <c r="E63" t="n">
-        <v>65330</v>
+        <v>64910</v>
       </c>
       <c r="F63" t="n">
         <v>3</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PARAKOU</t>
+          <t>DOUALA R.S.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -7453,17 +7762,17 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>2.616666666666667</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L63" t="n">
-        <v>9.35</v>
+        <v>4.016666666666667</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
-        <v>20060101</v>
+        <v>20060209</v>
       </c>
       <c r="O63" t="n">
-        <v>20061231</v>
+        <v>20061220</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -7480,11 +7789,11 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Parakou</t>
+          <t>Douala</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
@@ -7521,14 +7830,19 @@
       </c>
       <c r="AN63" t="inlineStr"/>
       <c r="AO63" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="AP63" t="n">
-        <v>393</v>
+        <v>9</v>
       </c>
       <c r="AQ63" t="inlineStr">
         <is>
-          <t>65330_amma.csv</t>
+          <t>64910_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR63" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7538,7 +7852,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0-20000-0-61024</t>
+          <t>0-20000-0-65125</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -7548,14 +7862,14 @@
         <v>63</v>
       </c>
       <c r="E64" t="n">
-        <v>61024</v>
+        <v>65125</v>
       </c>
       <c r="F64" t="n">
         <v>3</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>AGADEZ</t>
+          <t>ABUJA</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -7564,17 +7878,17 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>7.983333333333333</v>
+        <v>7</v>
       </c>
       <c r="L64" t="n">
-        <v>16.96666666666667</v>
+        <v>9.25</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
-        <v>20060120</v>
+        <v>20060608</v>
       </c>
       <c r="O64" t="n">
-        <v>20061010</v>
+        <v>20061226</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -7591,11 +7905,11 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Agadez</t>
+          <t>Abuja</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -7628,18 +7942,23 @@
         </is>
       </c>
       <c r="AM64" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AN64" t="inlineStr"/>
       <c r="AO64" t="n">
-        <v>1.2</v>
+        <v>21.2</v>
       </c>
       <c r="AP64" t="n">
-        <v>502</v>
+        <v>343.1</v>
       </c>
       <c r="AQ64" t="inlineStr">
         <is>
-          <t>61024_amma.csv</t>
+          <t>65125_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR64" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7649,7 +7968,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0-20000-0-65418</t>
+          <t>0-20000-0-61052</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -7659,14 +7978,14 @@
         <v>64</v>
       </c>
       <c r="E65" t="n">
-        <v>65418</v>
+        <v>61052</v>
       </c>
       <c r="F65" t="n">
         <v>3</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>TAMALE</t>
+          <t>NIAMEY-AERO</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -7675,17 +7994,17 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.85</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="L65" t="n">
-        <v>9.550000000000001</v>
+        <v>13.48333333333333</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
-        <v>20060508</v>
+        <v>20060118</v>
       </c>
       <c r="O65" t="n">
-        <v>20061227</v>
+        <v>20061231</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -7702,11 +8021,11 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Tamale</t>
+          <t>Niamey</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
@@ -7739,18 +8058,23 @@
         </is>
       </c>
       <c r="AM65" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="AN65" t="inlineStr"/>
       <c r="AO65" t="n">
-        <v>11.2</v>
+        <v>7.1</v>
       </c>
       <c r="AP65" t="n">
-        <v>168.8</v>
+        <v>227</v>
       </c>
       <c r="AQ65" t="inlineStr">
         <is>
-          <t>65418_amma.csv</t>
+          <t>61052_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR65" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7760,7 +8084,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0-20000-0-61641</t>
+          <t>0-20000-0-65418</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -7770,14 +8094,14 @@
         <v>65</v>
       </c>
       <c r="E66" t="n">
-        <v>61641</v>
+        <v>65418</v>
       </c>
       <c r="F66" t="n">
         <v>3</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>DAKAR/YOFF</t>
+          <t>TAMALE</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -7786,17 +8110,17 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>-17.5</v>
+        <v>-0.85</v>
       </c>
       <c r="L66" t="n">
-        <v>14.73</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
-        <v>20060101</v>
+        <v>20060508</v>
       </c>
       <c r="O66" t="n">
-        <v>20061231</v>
+        <v>20061227</v>
       </c>
       <c r="P66" t="n">
         <v>1</v>
@@ -7813,11 +8137,11 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Dakar</t>
+          <t>Tamale</t>
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
@@ -7850,18 +8174,23 @@
         </is>
       </c>
       <c r="AM66" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AN66" t="inlineStr"/>
       <c r="AO66" t="n">
-        <v>9.300000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="AP66" t="n">
-        <v>24.49</v>
+        <v>168.8</v>
       </c>
       <c r="AQ66" t="inlineStr">
         <is>
-          <t>61641_amma.csv</t>
+          <t>65418_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR66" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7871,7 +8200,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0-20000-0-61052</t>
+          <t>0-20000-0-65344</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -7881,14 +8210,14 @@
         <v>66</v>
       </c>
       <c r="E67" t="n">
-        <v>61052</v>
+        <v>65344</v>
       </c>
       <c r="F67" t="n">
         <v>3</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>NIAMEY-AERO</t>
+          <t>COTONOU</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -7897,17 +8226,17 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>2.166666666666667</v>
+        <v>2.383333333333333</v>
       </c>
       <c r="L67" t="n">
-        <v>13.48333333333333</v>
+        <v>6.35</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
-        <v>20060118</v>
+        <v>20060101</v>
       </c>
       <c r="O67" t="n">
-        <v>20061231</v>
+        <v>20061213</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -7924,11 +8253,11 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Niamey</t>
+          <t>Cotonou</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
@@ -7961,18 +8290,23 @@
         </is>
       </c>
       <c r="AM67" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AN67" t="inlineStr"/>
       <c r="AO67" t="n">
-        <v>7.1</v>
+        <v>5.9</v>
       </c>
       <c r="AP67" t="n">
-        <v>227</v>
+        <v>9</v>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>61052_amma.csv</t>
+          <t>65344_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR67" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -7982,7 +8316,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0-20000-0-65344</t>
+          <t>0-20000-0-65330</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -7992,14 +8326,14 @@
         <v>67</v>
       </c>
       <c r="E68" t="n">
-        <v>65344</v>
+        <v>65330</v>
       </c>
       <c r="F68" t="n">
         <v>3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>COTONOU</t>
+          <t>PARAKOU</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -8008,17 +8342,17 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>2.383333333333333</v>
+        <v>2.616666666666667</v>
       </c>
       <c r="L68" t="n">
-        <v>6.35</v>
+        <v>9.35</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
         <v>20060101</v>
       </c>
       <c r="O68" t="n">
-        <v>20061213</v>
+        <v>20061231</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -8039,7 +8373,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Cotonou</t>
+          <t>Parakou</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
@@ -8076,14 +8410,19 @@
       </c>
       <c r="AN68" t="inlineStr"/>
       <c r="AO68" t="n">
-        <v>5.9</v>
+        <v>0.4</v>
       </c>
       <c r="AP68" t="n">
-        <v>9</v>
+        <v>393</v>
       </c>
       <c r="AQ68" t="inlineStr">
         <is>
-          <t>65344_amma.csv</t>
+          <t>65330_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR68" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>

--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/amma_station_configuration_extended.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/amma_station_configuration_extended.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR68"/>
+  <dimension ref="A1:AR69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,7 +772,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0-20000-0-65046</t>
+          <t>0-20000-0-61226</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -782,14 +782,14 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>65046</v>
+        <v>61226</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>KANO</t>
+          <t>GAO</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -798,17 +798,17 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8.533333333333333</v>
+        <v>-0.05</v>
       </c>
       <c r="L3" t="n">
-        <v>12.05</v>
+        <v>16.26666666666667</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>20060717</v>
+        <v>20060104</v>
       </c>
       <c r="O3" t="n">
-        <v>20061005</v>
+        <v>20060317</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -825,11 +825,11 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Kano</t>
+          <t>Gao</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
@@ -862,18 +862,18 @@
         </is>
       </c>
       <c r="AM3" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="n">
-        <v>6.2</v>
+        <v>0.4</v>
       </c>
       <c r="AP3" t="n">
-        <v>472.5</v>
+        <v>260</v>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>65046_amma.csv</t>
+          <t>61226_amma.csv</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0-20000-0-61226</t>
+          <t>0-20000-0-65046</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -898,14 +898,14 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>61226</v>
+        <v>65046</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>GAO</t>
+          <t>KANO</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -914,17 +914,17 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.05</v>
+        <v>8.533333333333333</v>
       </c>
       <c r="L4" t="n">
-        <v>16.26666666666667</v>
+        <v>12.05</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>20060104</v>
+        <v>20060717</v>
       </c>
       <c r="O4" t="n">
-        <v>20060317</v>
+        <v>20061005</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -941,11 +941,11 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Gao</t>
+          <t>Kano</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
@@ -978,18 +978,18 @@
         </is>
       </c>
       <c r="AM4" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="n">
-        <v>0.4</v>
+        <v>6.2</v>
       </c>
       <c r="AP4" t="n">
-        <v>260</v>
+        <v>472.5</v>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>61226_amma.csv</t>
+          <t>65046_amma.csv</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0-20000-0-62641</t>
+          <t>0-20000-0-65387</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1130,14 +1130,14 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>62641</v>
+        <v>65387</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PORT SUDAN</t>
+          <t>LOME</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1146,17 +1146,17 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>37.21666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="L6" t="n">
-        <v>19.58333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>20060208</v>
+        <v>20060521</v>
       </c>
       <c r="O6" t="n">
-        <v>20060724</v>
+        <v>20061028</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -1173,11 +1173,11 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Sawakin</t>
+          <t>Aflao</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
@@ -1210,18 +1210,18 @@
         </is>
       </c>
       <c r="AM6" t="n">
-        <v>27.4</v>
+        <v>0.4</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>34.4</v>
+        <v>8.6</v>
       </c>
       <c r="AP6" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>62641_amma.csv</t>
+          <t>65387_amma.csv</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0-20000-0-65387</t>
+          <t>0-20000-0-62641</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1362,14 +1362,14 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>65387</v>
+        <v>62641</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>LOME</t>
+          <t>PORT SUDAN</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1378,17 +1378,17 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.25</v>
+        <v>37.21666666666667</v>
       </c>
       <c r="L8" t="n">
-        <v>6.166666666666667</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>20060521</v>
+        <v>20060208</v>
       </c>
       <c r="O8" t="n">
-        <v>20061028</v>
+        <v>20060724</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Aflao</t>
+          <t>Sawakin</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
@@ -1442,18 +1442,18 @@
         </is>
       </c>
       <c r="AM8" t="n">
-        <v>0.4</v>
+        <v>27.4</v>
       </c>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="n">
-        <v>8.6</v>
+        <v>34.4</v>
       </c>
       <c r="AP8" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>65387_amma.csv</t>
+          <t>62641_amma.csv</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0-20000-0-64450</t>
+          <t>0-20000-0-65202</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1942,14 +1942,14 @@
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>64450</v>
+        <v>65202</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BRAZZAVILLE /MAYA-MAYA</t>
+          <t>LAGOS/OSHODI</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1958,17 +1958,17 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>15.25</v>
+        <v>3.383333333333333</v>
       </c>
       <c r="L13" t="n">
-        <v>-4.25</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>20060101</v>
+        <v>20060104</v>
       </c>
       <c r="O13" t="n">
-        <v>20061028</v>
+        <v>20061219</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1985,11 +1985,11 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Brazzaville</t>
+          <t>Lagos</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
@@ -2022,18 +2022,18 @@
         </is>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="n">
-        <v>4</v>
+        <v>19.4</v>
       </c>
       <c r="AP13" t="n">
-        <v>316</v>
+        <v>39.3</v>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>64450_amma.csv</t>
+          <t>65202_amma.csv</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0-20000-0-65202</t>
+          <t>0-20000-0-64450</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2058,14 +2058,14 @@
         <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>65202</v>
+        <v>64450</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>LAGOS/OSHODI</t>
+          <t>BRAZZAVILLE /MAYA-MAYA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -2074,17 +2074,17 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>3.383333333333333</v>
+        <v>15.25</v>
       </c>
       <c r="L14" t="n">
-        <v>6.5</v>
+        <v>-4.25</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>20060104</v>
+        <v>20060101</v>
       </c>
       <c r="O14" t="n">
-        <v>20061219</v>
+        <v>20061028</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -2101,11 +2101,11 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Lagos</t>
+          <t>Brazzaville</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
@@ -2138,18 +2138,18 @@
         </is>
       </c>
       <c r="AM14" t="n">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="n">
-        <v>19.4</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>39.3</v>
+        <v>316</v>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>65202_amma.csv</t>
+          <t>64450_amma.csv</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0-20000-0-61415</t>
+          <t>0-20000-0-67095</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2522,14 +2522,14 @@
         <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>61415</v>
+        <v>67095</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>NOUADHIBOU</t>
+          <t>TOAMASINA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2538,17 +2538,17 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-17.03638888888889</v>
+        <v>49.4</v>
       </c>
       <c r="L18" t="n">
-        <v>20.92027777777778</v>
+        <v>-18.11666666666667</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>20060315</v>
+        <v>20060103</v>
       </c>
       <c r="O18" t="n">
-        <v>20061028</v>
+        <v>20061231</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2565,11 +2565,11 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Nouadhibou</t>
+          <t>Toamasina</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
@@ -2602,18 +2602,18 @@
         </is>
       </c>
       <c r="AM18" t="n">
-        <v>1.3</v>
+        <v>17.7</v>
       </c>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="n">
-        <v>5.1</v>
+        <v>18.6</v>
       </c>
       <c r="AP18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>61415_amma.csv</t>
+          <t>67095_amma.csv</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0-20000-0-67095</t>
+          <t>0-20000-0-61415</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2638,14 +2638,14 @@
         <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>67095</v>
+        <v>61415</v>
       </c>
       <c r="F19" t="n">
         <v>3</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>TOAMASINA</t>
+          <t>NOUADHIBOU</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2654,17 +2654,17 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>49.4</v>
+        <v>-17.03638888888889</v>
       </c>
       <c r="L19" t="n">
-        <v>-18.11666666666667</v>
+        <v>20.92027777777778</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>20060103</v>
+        <v>20060315</v>
       </c>
       <c r="O19" t="n">
-        <v>20061231</v>
+        <v>20061028</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2681,11 +2681,11 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Toamasina</t>
+          <t>Nouadhibou</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
@@ -2718,18 +2718,18 @@
         </is>
       </c>
       <c r="AM19" t="n">
-        <v>17.7</v>
+        <v>1.3</v>
       </c>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="n">
-        <v>18.6</v>
+        <v>5.1</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>67095_amma.csv</t>
+          <t>61415_amma.csv</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0-20000-0-64500</t>
+          <t>0-20300-0-62010</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2754,14 +2754,14 @@
         <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>64500</v>
+        <v>62010</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>LIBREVILLE</t>
+          <t>TRIPOLI INTL ARPT</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2770,17 +2770,17 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>9.416666666666666</v>
+        <v>13.1667</v>
       </c>
       <c r="L20" t="n">
-        <v>0.45</v>
+        <v>32.6833</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>20060101</v>
+        <v>20060901</v>
       </c>
       <c r="O20" t="n">
-        <v>20061231</v>
+        <v>20060930</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2797,11 +2797,11 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Libreville</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
@@ -2834,23 +2834,23 @@
         </is>
       </c>
       <c r="AM20" t="n">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="n">
-        <v>8.6</v>
+        <v>22.6</v>
       </c>
       <c r="AP20" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>64500_amma.csv</t>
+          <t>62010_amma.csv</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>OSCAR</t>
+          <t>IGRA2</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0-20300-0-62010</t>
+          <t>0-20000-0-64500</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2870,14 +2870,14 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>62010</v>
+        <v>64500</v>
       </c>
       <c r="F21" t="n">
         <v>3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>TRIPOLI INTL ARPT</t>
+          <t>LIBREVILLE</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2886,17 +2886,17 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>13.1667</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="L21" t="n">
-        <v>32.6833</v>
+        <v>0.45</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>20060901</v>
+        <v>20060101</v>
       </c>
       <c r="O21" t="n">
-        <v>20060930</v>
+        <v>20061231</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2913,11 +2913,11 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Libreville</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
@@ -2950,23 +2950,23 @@
         </is>
       </c>
       <c r="AM21" t="n">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="n">
-        <v>22.6</v>
+        <v>8.6</v>
       </c>
       <c r="AP21" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>62010_amma.csv</t>
+          <t>64500_amma.csv</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>IGRA2</t>
+          <t>OSCAR</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0-20000-0-64458</t>
+          <t>0-20000-0-64400</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3218,14 +3218,14 @@
         <v>23</v>
       </c>
       <c r="E24" t="n">
-        <v>64458</v>
+        <v>64400</v>
       </c>
       <c r="F24" t="n">
         <v>3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>OUESSO</t>
+          <t>POINTE-NOIRE</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3234,17 +3234,17 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>16.05</v>
+        <v>11.88166666666667</v>
       </c>
       <c r="L24" t="n">
-        <v>1.616666666666667</v>
+        <v>-4.804444444444444</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>20060101</v>
+        <v>20060104</v>
       </c>
       <c r="O24" t="n">
-        <v>20061228</v>
+        <v>20061219</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>Ouesso</t>
+          <t>Loandjili</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
@@ -3298,18 +3298,18 @@
         </is>
       </c>
       <c r="AM24" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="n">
-        <v>0.7</v>
+        <v>8.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>350</v>
+        <v>19</v>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>64458_amma.csv</t>
+          <t>#64400_amma.csv#</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0-20000-0-61831</t>
+          <t>0-20000-0-64458</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3334,14 +3334,14 @@
         <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>61831</v>
+        <v>64458</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CONAKRY</t>
+          <t>OUESSO</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3350,17 +3350,17 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-13.61666666666667</v>
+        <v>16.05</v>
       </c>
       <c r="L25" t="n">
-        <v>9.566666666666666</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>20060827</v>
+        <v>20060101</v>
       </c>
       <c r="O25" t="n">
-        <v>20061106</v>
+        <v>20061228</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -3377,11 +3377,11 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>Conakry</t>
+          <t>Ouesso</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -3414,18 +3414,18 @@
         </is>
       </c>
       <c r="AM25" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="n">
-        <v>12.6</v>
+        <v>0.7</v>
       </c>
       <c r="AP25" t="n">
-        <v>25.79</v>
+        <v>350</v>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>61831_amma.csv</t>
+          <t>64458_amma.csv</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0-20000-0-08594</t>
+          <t>0-20000-0-61831</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3450,14 +3450,14 @@
         <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>8594</v>
+        <v>61831</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SAL</t>
+          <t>CONAKRY</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3466,17 +3466,17 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-22.94888888888889</v>
+        <v>-13.61666666666667</v>
       </c>
       <c r="L26" t="n">
-        <v>16.74194444444445</v>
+        <v>9.566666666666666</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>20060504</v>
+        <v>20060827</v>
       </c>
       <c r="O26" t="n">
-        <v>20060929</v>
+        <v>20061106</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -3493,11 +3493,11 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Santa Maria</t>
+          <t>Conakry</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
@@ -3530,18 +3530,18 @@
         </is>
       </c>
       <c r="AM26" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="n">
-        <v>15.3</v>
+        <v>12.6</v>
       </c>
       <c r="AP26" t="n">
-        <v>55.74</v>
+        <v>25.79</v>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>08594_amma.csv</t>
+          <t>61831_amma.csv</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0-20000-0-61902</t>
+          <t>0-20000-0-08594</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3682,14 +3682,14 @@
         <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>61902</v>
+        <v>8594</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>WIDE AWAKE FIELD (ASCENSION IS.)</t>
+          <t>SAL</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3698,14 +3698,14 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-14.40555555555556</v>
+        <v>-22.94888888888889</v>
       </c>
       <c r="L28" t="n">
-        <v>-7.97</v>
+        <v>16.74194444444445</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>20060503</v>
+        <v>20060504</v>
       </c>
       <c r="O28" t="n">
         <v>20060929</v>
@@ -3725,11 +3725,11 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Santa Maria</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
@@ -3762,20 +3762,18 @@
         </is>
       </c>
       <c r="AM28" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO28" t="n">
+        <v>15.3</v>
       </c>
       <c r="AP28" t="n">
-        <v>79</v>
+        <v>55.74</v>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>61902_amma.csv</t>
+          <t>08594_amma.csv</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
@@ -3906,7 +3904,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0-20000-0-63894</t>
+          <t>0-20000-0-61902</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3916,14 +3914,14 @@
         <v>29</v>
       </c>
       <c r="E30" t="n">
-        <v>63894</v>
+        <v>61902</v>
       </c>
       <c r="F30" t="n">
         <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>DAR ES SALAAM INT</t>
+          <t>WIDE AWAKE FIELD (ASCENSION IS.)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -3932,14 +3930,14 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.2075</v>
+        <v>-14.40555555555556</v>
       </c>
       <c r="L30" t="n">
-        <v>-6.876111111111111</v>
+        <v>-7.97</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>20060607</v>
+        <v>20060503</v>
       </c>
       <c r="O30" t="n">
         <v>20060929</v>
@@ -3959,13 +3957,9 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>227</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>Magomeni</t>
-        </is>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
@@ -3996,18 +3990,16 @@
         </is>
       </c>
       <c r="AM30" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>63894_amma.csv</t>
+          <t>61902_amma.csv</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
@@ -4022,7 +4014,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0-20000-0-60360</t>
+          <t>0-20000-0-63894</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -4032,14 +4024,14 @@
         <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>60360</v>
+        <v>63894</v>
       </c>
       <c r="F31" t="n">
         <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ANNABA</t>
+          <t>DAR ES SALAAM INT</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -4048,17 +4040,17 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.816666666666666</v>
+        <v>39.2075</v>
       </c>
       <c r="L31" t="n">
-        <v>36.83333333333334</v>
+        <v>-6.876111111111111</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>20060101</v>
+        <v>20060607</v>
       </c>
       <c r="O31" t="n">
-        <v>20061231</v>
+        <v>20060929</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -4075,11 +4067,11 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Tabarqah</t>
+          <t>Magomeni</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -4112,18 +4104,18 @@
         </is>
       </c>
       <c r="AM31" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="n">
-        <v>87.09999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>60360_amma.csv</t>
+          <t>63894_amma.csv</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
@@ -4138,7 +4130,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0-20000-0-60656</t>
+          <t>0-20000-0-60360</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -4148,14 +4140,14 @@
         <v>31</v>
       </c>
       <c r="E32" t="n">
-        <v>60656</v>
+        <v>60360</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>TINDOUF</t>
+          <t>ANNABA</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -4164,17 +4156,17 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-8.169166666666666</v>
+        <v>7.816666666666666</v>
       </c>
       <c r="L32" t="n">
-        <v>27.70416666666667</v>
+        <v>36.83333333333334</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>20060501</v>
+        <v>20060101</v>
       </c>
       <c r="O32" t="n">
-        <v>20060930</v>
+        <v>20061231</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -4195,7 +4187,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Tiznit</t>
+          <t>Tabarqah</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
@@ -4228,18 +4220,18 @@
         </is>
       </c>
       <c r="AM32" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="n">
-        <v>270</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="AP32" t="n">
-        <v>449</v>
+        <v>8</v>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>60656_amma.csv</t>
+          <t>60360_amma.csv</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
@@ -4254,7 +4246,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0-20000-0-63450</t>
+          <t>0-20000-0-60656</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -4264,14 +4256,14 @@
         <v>32</v>
       </c>
       <c r="E33" t="n">
-        <v>63450</v>
+        <v>60656</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ADDIS ABABA-BOLE</t>
+          <t>TINDOUF</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -4280,17 +4272,17 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.75</v>
+        <v>-8.169166666666666</v>
       </c>
       <c r="L33" t="n">
-        <v>9.033333333333331</v>
+        <v>27.70416666666667</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>20060106</v>
+        <v>20060501</v>
       </c>
       <c r="O33" t="n">
-        <v>20061228</v>
+        <v>20060930</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -4307,11 +4299,11 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Addis Abeba</t>
+          <t>Tiznit</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -4344,18 +4336,18 @@
         </is>
       </c>
       <c r="AM33" t="n">
-        <v>0.4</v>
+        <v>4.9</v>
       </c>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="n">
-        <v>0.6</v>
+        <v>270</v>
       </c>
       <c r="AP33" t="n">
-        <v>2354</v>
+        <v>449</v>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>63450_amma.csv</t>
+          <t>60656_amma.csv</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
@@ -4370,7 +4362,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0-20000-0-62414</t>
+          <t>0-20000-0-63450</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -4380,14 +4372,14 @@
         <v>33</v>
       </c>
       <c r="E34" t="n">
-        <v>62414</v>
+        <v>63450</v>
       </c>
       <c r="F34" t="n">
         <v>3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ASSWAN</t>
+          <t>ADDIS ABABA-BOLE</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4396,17 +4388,17 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>32.82</v>
+        <v>38.75</v>
       </c>
       <c r="L34" t="n">
-        <v>23.96444444444444</v>
+        <v>9.033333333333331</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>20060501</v>
+        <v>20060106</v>
       </c>
       <c r="O34" t="n">
-        <v>20060930</v>
+        <v>20061228</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4423,11 +4415,11 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Aswan</t>
+          <t>Addis Abeba</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
@@ -4460,18 +4452,18 @@
         </is>
       </c>
       <c r="AM34" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="n">
-        <v>17.8</v>
+        <v>0.6</v>
       </c>
       <c r="AP34" t="n">
-        <v>194</v>
+        <v>2354</v>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>62414_amma.csv</t>
+          <t>63450_amma.csv</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
@@ -4486,7 +4478,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0-20000-0-60630</t>
+          <t>0-20000-0-62414</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -4496,14 +4488,14 @@
         <v>34</v>
       </c>
       <c r="E35" t="n">
-        <v>60630</v>
+        <v>62414</v>
       </c>
       <c r="F35" t="n">
         <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>IN-SALAH</t>
+          <t>ASSWAN</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4512,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2.511666666666667</v>
+        <v>32.82</v>
       </c>
       <c r="L35" t="n">
-        <v>27.25361111111112</v>
+        <v>23.96444444444444</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
@@ -4539,11 +4531,11 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>Adrar</t>
+          <t>Aswan</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
@@ -4576,18 +4568,18 @@
         </is>
       </c>
       <c r="AM35" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="n">
-        <v>282.8</v>
+        <v>17.8</v>
       </c>
       <c r="AP35" t="n">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>60630_amma.csv</t>
+          <t>62414_amma.csv</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
@@ -4718,7 +4710,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0-20000-0-62403</t>
+          <t>0-20000-0-60630</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -4728,14 +4720,14 @@
         <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>62403</v>
+        <v>60630</v>
       </c>
       <c r="F37" t="n">
         <v>3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>SOUTH OF VALLEY UNIVERSITY</t>
+          <t>IN-SALAH</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -4744,10 +4736,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>32.74666666666667</v>
+        <v>2.511666666666667</v>
       </c>
       <c r="L37" t="n">
-        <v>26.20027777777777</v>
+        <v>27.25361111111112</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
@@ -4771,11 +4763,11 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Qena</t>
+          <t>Adrar</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -4808,18 +4800,18 @@
         </is>
       </c>
       <c r="AM37" t="n">
-        <v>0.3</v>
+        <v>7.2</v>
       </c>
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="n">
-        <v>4</v>
+        <v>282.8</v>
       </c>
       <c r="AP37" t="n">
-        <v>77.3</v>
+        <v>269</v>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>62403_amma.csv</t>
+          <t>60630_amma.csv</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -4834,7 +4826,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0-20000-0-60155</t>
+          <t>0-20000-0-62403</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -4844,14 +4836,14 @@
         <v>37</v>
       </c>
       <c r="E38" t="n">
-        <v>60155</v>
+        <v>62403</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CASABLANCA</t>
+          <t>SOUTH OF VALLEY UNIVERSITY</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -4860,14 +4852,14 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-7.666666666666667</v>
+        <v>32.74666666666667</v>
       </c>
       <c r="L38" t="n">
-        <v>33.56666666666667</v>
+        <v>26.20027777777777</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>20060502</v>
+        <v>20060501</v>
       </c>
       <c r="O38" t="n">
         <v>20060930</v>
@@ -4887,11 +4879,11 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>Casablanca</t>
+          <t>Qena</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -4924,18 +4916,18 @@
         </is>
       </c>
       <c r="AM38" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="AP38" t="n">
-        <v>57</v>
+        <v>77.3</v>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>60155_amma.csv</t>
+          <t>62403_amma.csv</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
@@ -4950,7 +4942,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0-20000-0-62306</t>
+          <t>0-20000-0-60155</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -4960,14 +4952,14 @@
         <v>38</v>
       </c>
       <c r="E39" t="n">
-        <v>62306</v>
+        <v>60155</v>
       </c>
       <c r="F39" t="n">
         <v>3</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>MERSA MATRUH</t>
+          <t>CASABLANCA</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -4976,14 +4968,14 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>27.22166666666666</v>
+        <v>-7.666666666666667</v>
       </c>
       <c r="L39" t="n">
-        <v>31.32527777777777</v>
+        <v>33.56666666666667</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>20060501</v>
+        <v>20060502</v>
       </c>
       <c r="O39" t="n">
         <v>20060930</v>
@@ -5003,11 +4995,11 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>Marsa Matruh</t>
+          <t>Casablanca</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -5044,14 +5036,14 @@
       </c>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="n">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="AP39" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>62306_amma.csv</t>
+          <t>60155_amma.csv</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
@@ -5066,7 +5058,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0-20000-0-62423</t>
+          <t>0-20000-0-62306</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -5076,14 +5068,14 @@
         <v>39</v>
       </c>
       <c r="E40" t="n">
-        <v>62423</v>
+        <v>62306</v>
       </c>
       <c r="F40" t="n">
         <v>3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>FARAFRA</t>
+          <t>MERSA MATRUH</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -5092,10 +5084,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>27.98916666666666</v>
+        <v>27.22166666666666</v>
       </c>
       <c r="L40" t="n">
-        <v>27.05833333333333</v>
+        <v>31.32527777777777</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
@@ -5123,7 +5115,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>Matay</t>
+          <t>Marsa Matruh</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
@@ -5156,18 +5148,18 @@
         </is>
       </c>
       <c r="AM40" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="n">
-        <v>313.1</v>
+        <v>2.6</v>
       </c>
       <c r="AP40" t="n">
-        <v>92.09999999999999</v>
+        <v>30</v>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>62423_amma.csv</t>
+          <t>62306_amma.csv</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr">
@@ -5182,7 +5174,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0-20000-0-61901</t>
+          <t>0-20000-0-62423</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -5192,14 +5184,14 @@
         <v>40</v>
       </c>
       <c r="E41" t="n">
-        <v>61901</v>
+        <v>62423</v>
       </c>
       <c r="F41" t="n">
         <v>3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ST. HELENA IS.</t>
+          <t>FARAFRA</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -5208,17 +5200,17 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-5.667222222222223</v>
+        <v>27.98916666666666</v>
       </c>
       <c r="L41" t="n">
-        <v>-15.94194444444444</v>
+        <v>27.05833333333333</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
         <v>20060501</v>
       </c>
       <c r="O41" t="n">
-        <v>20060929</v>
+        <v>20060930</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -5235,11 +5227,11 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Matay</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
@@ -5272,20 +5264,18 @@
         </is>
       </c>
       <c r="AM41" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AN41" t="inlineStr"/>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="AO41" t="n">
+        <v>313.1</v>
       </c>
       <c r="AP41" t="n">
-        <v>436</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>61901_amma.csv</t>
+          <t>62423_amma.csv</t>
         </is>
       </c>
       <c r="AR41" t="inlineStr">
@@ -5300,7 +5290,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0-20000-0-63741</t>
+          <t>0-20000-0-61901</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -5310,14 +5300,14 @@
         <v>41</v>
       </c>
       <c r="E42" t="n">
-        <v>63741</v>
+        <v>61901</v>
       </c>
       <c r="F42" t="n">
         <v>3</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>DAGORETTI CORNER</t>
+          <t>ST. HELENA IS.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5326,17 +5316,17 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>36.75972222222222</v>
+        <v>-5.667222222222223</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.301388888888889</v>
+        <v>-15.94194444444444</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
         <v>20060501</v>
       </c>
       <c r="O42" t="n">
-        <v>20060930</v>
+        <v>20060929</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -5353,13 +5343,9 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>114</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>Nairobi</t>
-        </is>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
@@ -5390,18 +5376,16 @@
         </is>
       </c>
       <c r="AM42" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="n">
-        <v>1639.26</v>
+        <v>436</v>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>63741_amma.csv</t>
+          <t>61901_amma.csv</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
@@ -5416,7 +5400,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0-20000-0-60571</t>
+          <t>0-20000-0-63741</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -5426,14 +5410,14 @@
         <v>42</v>
       </c>
       <c r="E43" t="n">
-        <v>60571</v>
+        <v>63741</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>BECHAR</t>
+          <t>DAGORETTI CORNER</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5442,10 +5426,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-2.252222222222222</v>
+        <v>36.75972222222222</v>
       </c>
       <c r="L43" t="n">
-        <v>31.65416666666667</v>
+        <v>-1.301388888888889</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
@@ -5469,11 +5453,11 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>Mrirt</t>
+          <t>Nairobi</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
@@ -5506,18 +5490,18 @@
         </is>
       </c>
       <c r="AM43" t="n">
-        <v>17.7</v>
+        <v>4.9</v>
       </c>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="n">
-        <v>359</v>
+        <v>4.5</v>
       </c>
       <c r="AP43" t="n">
-        <v>816</v>
+        <v>1639.26</v>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>60571_amma.csv</t>
+          <t>63741_amma.csv</t>
         </is>
       </c>
       <c r="AR43" t="inlineStr">
@@ -5648,7 +5632,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0-20000-0-67083</t>
+          <t>0-20000-0-60571</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -5658,14 +5642,14 @@
         <v>44</v>
       </c>
       <c r="E45" t="n">
-        <v>67083</v>
+        <v>60571</v>
       </c>
       <c r="F45" t="n">
         <v>3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ANTANANARIVO/IVATO</t>
+          <t>BECHAR</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -5674,14 +5658,14 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>47.48333333333333</v>
+        <v>-2.252222222222222</v>
       </c>
       <c r="L45" t="n">
-        <v>-18.8</v>
+        <v>31.65416666666667</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>20060502</v>
+        <v>20060501</v>
       </c>
       <c r="O45" t="n">
         <v>20060930</v>
@@ -5701,11 +5685,11 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Antananarivo</t>
+          <t>Mrirt</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -5738,18 +5722,18 @@
         </is>
       </c>
       <c r="AM45" t="n">
-        <v>0.4</v>
+        <v>17.7</v>
       </c>
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="n">
-        <v>13.5</v>
+        <v>359</v>
       </c>
       <c r="AP45" t="n">
-        <v>1276</v>
+        <v>816</v>
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>67083_amma.csv</t>
+          <t>60571_amma.csv</t>
         </is>
       </c>
       <c r="AR45" t="inlineStr">
@@ -5880,7 +5864,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0-20000-0-60018</t>
+          <t>0-20000-0-67083</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -5890,14 +5874,14 @@
         <v>46</v>
       </c>
       <c r="E47" t="n">
-        <v>60018</v>
+        <v>67083</v>
       </c>
       <c r="F47" t="n">
         <v>3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>TENERIFE-GUIMAR</t>
+          <t>ANTANANARIVO/IVATO</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -5906,14 +5890,14 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>-16.38222222222222</v>
+        <v>47.48333333333333</v>
       </c>
       <c r="L47" t="n">
-        <v>28.31833333333333</v>
+        <v>-18.8</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>20060501</v>
+        <v>20060502</v>
       </c>
       <c r="O47" t="n">
         <v>20060930</v>
@@ -5933,11 +5917,11 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>Guimar</t>
+          <t>Antananarivo</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -5970,18 +5954,18 @@
         </is>
       </c>
       <c r="AM47" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="n">
-        <v>3.3</v>
+        <v>13.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>2368</v>
+        <v>1276</v>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>60018_amma.csv</t>
+          <t>67083_amma.csv</t>
         </is>
       </c>
       <c r="AR47" t="inlineStr">
@@ -6112,7 +6096,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0-20000-0-60680</t>
+          <t>0-20000-0-60018</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -6122,14 +6106,14 @@
         <v>48</v>
       </c>
       <c r="E49" t="n">
-        <v>60680</v>
+        <v>60018</v>
       </c>
       <c r="F49" t="n">
         <v>3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>TAMANRASSET</t>
+          <t>TENERIFE-GUIMAR</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -6138,10 +6122,10 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>5.452500000000001</v>
+        <v>-16.38222222222222</v>
       </c>
       <c r="L49" t="n">
-        <v>22.82527777777777</v>
+        <v>28.31833333333333</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
@@ -6165,11 +6149,11 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Arlit</t>
+          <t>Guimar</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
@@ -6202,18 +6186,18 @@
         </is>
       </c>
       <c r="AM49" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="n">
-        <v>493.5</v>
+        <v>3.3</v>
       </c>
       <c r="AP49" t="n">
-        <v>1377</v>
+        <v>2368</v>
       </c>
       <c r="AQ49" t="inlineStr">
         <is>
-          <t>60680_amma.csv</t>
+          <t>60018_amma.csv</t>
         </is>
       </c>
       <c r="AR49" t="inlineStr">
@@ -6228,7 +6212,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0-20000-0-08589</t>
+          <t>0-20000-0-60680</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -6238,14 +6222,14 @@
         <v>49</v>
       </c>
       <c r="E50" t="n">
-        <v>8589</v>
+        <v>60680</v>
       </c>
       <c r="F50" t="n">
         <v>3</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PRAIA</t>
+          <t>TAMANRASSET</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -6254,17 +6238,17 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>-23.48472222222222</v>
+        <v>5.452500000000001</v>
       </c>
       <c r="L50" t="n">
-        <v>14.94111111111111</v>
+        <v>22.82527777777777</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>20060818</v>
+        <v>20060501</v>
       </c>
       <c r="O50" t="n">
-        <v>20060914</v>
+        <v>20060930</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -6281,11 +6265,11 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>Praia</t>
+          <t>Arlit</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
@@ -6318,18 +6302,18 @@
         </is>
       </c>
       <c r="AM50" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="n">
-        <v>3.2</v>
+        <v>493.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>95.09999999999999</v>
+        <v>1377</v>
       </c>
       <c r="AQ50" t="inlineStr">
         <is>
-          <t>08589_amma.csv</t>
+          <t>60680_amma.csv</t>
         </is>
       </c>
       <c r="AR50" t="inlineStr">
@@ -6460,7 +6444,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0-20000-0-64650</t>
+          <t>0-20000-0-08589</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -6470,14 +6454,14 @@
         <v>51</v>
       </c>
       <c r="E52" t="n">
-        <v>64650</v>
+        <v>8589</v>
       </c>
       <c r="F52" t="n">
         <v>3</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>BANGUI</t>
+          <t>PRAIA</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -6486,17 +6470,17 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>18.51666666666667</v>
+        <v>-23.48472222222222</v>
       </c>
       <c r="L52" t="n">
-        <v>4.4</v>
+        <v>14.94111111111111</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>20060427</v>
+        <v>20060818</v>
       </c>
       <c r="O52" t="n">
-        <v>20061214</v>
+        <v>20060914</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -6513,11 +6497,11 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Bangui</t>
+          <t>Praia</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -6550,18 +6534,18 @@
         </is>
       </c>
       <c r="AM52" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="n">
-        <v>7.9</v>
+        <v>3.2</v>
       </c>
       <c r="AP52" t="n">
-        <v>366</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>64650_amma.csv</t>
+          <t>08589_amma.csv</t>
         </is>
       </c>
       <c r="AR52" t="inlineStr">
@@ -6576,7 +6560,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0-20000-0-64870</t>
+          <t>0-20000-0-60715</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -6586,14 +6570,14 @@
         <v>52</v>
       </c>
       <c r="E53" t="n">
-        <v>64870</v>
+        <v>60715</v>
       </c>
       <c r="F53" t="n">
         <v>3</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>NGAOUNDERE</t>
+          <t>TUNIS-CARTHAGE</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -6602,10 +6586,10 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>13.56666666666667</v>
+        <v>10.23333333333333</v>
       </c>
       <c r="L53" t="n">
-        <v>7.35</v>
+        <v>36.83333333333334</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
@@ -6629,11 +6613,11 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Ngaoundere</t>
+          <t>Aryanah</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -6666,18 +6650,18 @@
         </is>
       </c>
       <c r="AM53" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AP53" t="n">
         <v>4</v>
       </c>
-      <c r="AP53" t="n">
-        <v>1104</v>
-      </c>
       <c r="AQ53" t="inlineStr">
         <is>
-          <t>64870_amma.csv</t>
+          <t>60715_amma.csv</t>
         </is>
       </c>
       <c r="AR53" t="inlineStr">
@@ -6692,7 +6676,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0-20000-0-61223</t>
+          <t>0-20000-0-64650</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -6702,14 +6686,14 @@
         <v>53</v>
       </c>
       <c r="E54" t="n">
-        <v>61223</v>
+        <v>64650</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>TOMBOUCTOU</t>
+          <t>BANGUI</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -6718,17 +6702,17 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>-3</v>
+        <v>18.51666666666667</v>
       </c>
       <c r="L54" t="n">
-        <v>16.71666666666667</v>
+        <v>4.4</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>20060101</v>
+        <v>20060427</v>
       </c>
       <c r="O54" t="n">
-        <v>20061231</v>
+        <v>20061214</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -6745,11 +6729,11 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Tombouctou</t>
+          <t>Bangui</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
@@ -6786,14 +6770,14 @@
       </c>
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="n">
-        <v>5.5</v>
+        <v>7.9</v>
       </c>
       <c r="AP54" t="n">
-        <v>264</v>
+        <v>366</v>
       </c>
       <c r="AQ54" t="inlineStr">
         <is>
-          <t>61223_amma.csv</t>
+          <t>64650_amma.csv</t>
         </is>
       </c>
       <c r="AR54" t="inlineStr">
@@ -6808,7 +6792,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0-20000-0-64700</t>
+          <t>0-20000-0-64870</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -6818,14 +6802,14 @@
         <v>54</v>
       </c>
       <c r="E55" t="n">
-        <v>64700</v>
+        <v>64870</v>
       </c>
       <c r="F55" t="n">
         <v>3</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>NDJAMENA</t>
+          <t>NGAOUNDERE</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -6834,17 +6818,17 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>15.03333333333333</v>
+        <v>13.56666666666667</v>
       </c>
       <c r="L55" t="n">
-        <v>12.13333333333333</v>
+        <v>7.35</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>20060101</v>
+        <v>20060501</v>
       </c>
       <c r="O55" t="n">
-        <v>20061217</v>
+        <v>20060930</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -6861,11 +6845,11 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>Kousseri</t>
+          <t>Ngaoundere</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -6898,18 +6882,18 @@
         </is>
       </c>
       <c r="AM55" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="AP55" t="n">
-        <v>295</v>
+        <v>1104</v>
       </c>
       <c r="AQ55" t="inlineStr">
         <is>
-          <t>64700_amma.csv</t>
+          <t>64870_amma.csv</t>
         </is>
       </c>
       <c r="AR55" t="inlineStr">
@@ -6924,7 +6908,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0-20000-0-60715</t>
+          <t>0-20000-0-61223</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -6934,14 +6918,14 @@
         <v>55</v>
       </c>
       <c r="E56" t="n">
-        <v>60715</v>
+        <v>61223</v>
       </c>
       <c r="F56" t="n">
         <v>3</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>TUNIS-CARTHAGE</t>
+          <t>TOMBOUCTOU</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -6950,17 +6934,17 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>10.23333333333333</v>
+        <v>-3</v>
       </c>
       <c r="L56" t="n">
-        <v>36.83333333333334</v>
+        <v>16.71666666666667</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>20060501</v>
+        <v>20060101</v>
       </c>
       <c r="O56" t="n">
-        <v>20060930</v>
+        <v>20061231</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -6977,11 +6961,11 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Aryanah</t>
+          <t>Tombouctou</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
@@ -7014,18 +6998,18 @@
         </is>
       </c>
       <c r="AM56" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="AQ56" t="inlineStr">
         <is>
-          <t>60715_amma.csv</t>
+          <t>61223_amma.csv</t>
         </is>
       </c>
       <c r="AR56" t="inlineStr">
@@ -7272,7 +7256,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0-20000-0-61291</t>
+          <t>0-20000-0-64700</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -7282,14 +7266,14 @@
         <v>58</v>
       </c>
       <c r="E59" t="n">
-        <v>61291</v>
+        <v>64700</v>
       </c>
       <c r="F59" t="n">
         <v>3</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>BAMAKO/SENOU</t>
+          <t>NDJAMENA</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -7298,17 +7282,17 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>-7.95</v>
+        <v>15.03333333333333</v>
       </c>
       <c r="L59" t="n">
-        <v>12.53333333333333</v>
+        <v>12.13333333333333</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
         <v>20060101</v>
       </c>
       <c r="O59" t="n">
-        <v>20061231</v>
+        <v>20061217</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -7325,11 +7309,11 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>Bamako</t>
+          <t>Kousseri</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
@@ -7362,18 +7346,18 @@
         </is>
       </c>
       <c r="AM59" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AN59" t="inlineStr"/>
       <c r="AO59" t="n">
-        <v>14.3</v>
+        <v>5.7</v>
       </c>
       <c r="AP59" t="n">
-        <v>381</v>
+        <v>295</v>
       </c>
       <c r="AQ59" t="inlineStr">
         <is>
-          <t>61291_amma.csv</t>
+          <t>64700_amma.csv</t>
         </is>
       </c>
       <c r="AR59" t="inlineStr">
@@ -7388,7 +7372,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0-20000-0-61641</t>
+          <t>0-20000-0-61291</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -7398,14 +7382,14 @@
         <v>59</v>
       </c>
       <c r="E60" t="n">
-        <v>61641</v>
+        <v>61291</v>
       </c>
       <c r="F60" t="n">
         <v>3</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>DAKAR/YOFF</t>
+          <t>BAMAKO/SENOU</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -7414,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>-17.5</v>
+        <v>-7.95</v>
       </c>
       <c r="L60" t="n">
-        <v>14.73</v>
+        <v>12.53333333333333</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
@@ -7441,11 +7425,11 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Dakar</t>
+          <t>Bamako</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
@@ -7478,18 +7462,18 @@
         </is>
       </c>
       <c r="AM60" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="n">
-        <v>9.300000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="AP60" t="n">
-        <v>24.49</v>
+        <v>381</v>
       </c>
       <c r="AQ60" t="inlineStr">
         <is>
-          <t>61641_amma.csv</t>
+          <t>61291_amma.csv</t>
         </is>
       </c>
       <c r="AR60" t="inlineStr">
@@ -7504,7 +7488,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0-20000-0-61442</t>
+          <t>0-20000-0-61641</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -7514,14 +7498,14 @@
         <v>60</v>
       </c>
       <c r="E61" t="n">
-        <v>61442</v>
+        <v>61641</v>
       </c>
       <c r="F61" t="n">
         <v>3</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>NOUAKCHOTT / Oumtounsy</t>
+          <t>DAKAR/YOFF</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -7530,14 +7514,14 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>-15.97555555555556</v>
+        <v>-17.5</v>
       </c>
       <c r="L61" t="n">
-        <v>18.30027777777778</v>
+        <v>14.73</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>20060105</v>
+        <v>20060101</v>
       </c>
       <c r="O61" t="n">
         <v>20061231</v>
@@ -7557,11 +7541,11 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>Nouakchott</t>
+          <t>Dakar</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
@@ -7594,18 +7578,18 @@
         </is>
       </c>
       <c r="AM61" t="n">
-        <v>22.3</v>
+        <v>0</v>
       </c>
       <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="n">
-        <v>3.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AP61" t="n">
-        <v>7.86</v>
+        <v>24.49</v>
       </c>
       <c r="AQ61" t="inlineStr">
         <is>
-          <t>61442_amma.csv</t>
+          <t>61641_amma.csv</t>
         </is>
       </c>
       <c r="AR61" t="inlineStr">
@@ -7620,7 +7604,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0-20000-0-61024</t>
+          <t>0-20001-0-64910</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -7630,14 +7614,14 @@
         <v>61</v>
       </c>
       <c r="E62" t="n">
-        <v>61024</v>
+        <v>64910</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>AGADEZ</t>
+          <t>DOUALA R.S.</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -7646,17 +7630,17 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>7.983333333333333</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L62" t="n">
-        <v>16.96666666666667</v>
+        <v>4.016666666666667</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>20060120</v>
+        <v>20060209</v>
       </c>
       <c r="O62" t="n">
-        <v>20061010</v>
+        <v>20061220</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -7673,11 +7657,11 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Agadez</t>
+          <t>Douala</t>
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
@@ -7710,18 +7694,18 @@
         </is>
       </c>
       <c r="AM62" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AN62" t="inlineStr"/>
       <c r="AO62" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="AP62" t="n">
-        <v>502</v>
+        <v>9</v>
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>61024_amma.csv</t>
+          <t>64910_amma.csv</t>
         </is>
       </c>
       <c r="AR62" t="inlineStr">
@@ -7736,7 +7720,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0-20001-0-64910</t>
+          <t>0-20000-0-65125</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -7746,14 +7730,14 @@
         <v>62</v>
       </c>
       <c r="E63" t="n">
-        <v>64910</v>
+        <v>65125</v>
       </c>
       <c r="F63" t="n">
         <v>3</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>DOUALA R.S.</t>
+          <t>ABUJA</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -7762,17 +7746,17 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>9.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="L63" t="n">
-        <v>4.016666666666667</v>
+        <v>9.25</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
-        <v>20060209</v>
+        <v>20060608</v>
       </c>
       <c r="O63" t="n">
-        <v>20061220</v>
+        <v>20061226</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -7789,11 +7773,11 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Douala</t>
+          <t>Abuja</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
@@ -7826,18 +7810,18 @@
         </is>
       </c>
       <c r="AM63" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AN63" t="inlineStr"/>
       <c r="AO63" t="n">
-        <v>3.3</v>
+        <v>21.2</v>
       </c>
       <c r="AP63" t="n">
-        <v>9</v>
+        <v>343.1</v>
       </c>
       <c r="AQ63" t="inlineStr">
         <is>
-          <t>64910_amma.csv</t>
+          <t>65125_amma.csv</t>
         </is>
       </c>
       <c r="AR63" t="inlineStr">
@@ -7852,7 +7836,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0-20000-0-65125</t>
+          <t>0-20000-0-61442</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -7862,14 +7846,14 @@
         <v>63</v>
       </c>
       <c r="E64" t="n">
-        <v>65125</v>
+        <v>61442</v>
       </c>
       <c r="F64" t="n">
         <v>3</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ABUJA</t>
+          <t>NOUAKCHOTT / Oumtounsy</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -7878,17 +7862,17 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>7</v>
+        <v>-15.97555555555556</v>
       </c>
       <c r="L64" t="n">
-        <v>9.25</v>
+        <v>18.30027777777778</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
-        <v>20060608</v>
+        <v>20060105</v>
       </c>
       <c r="O64" t="n">
-        <v>20061226</v>
+        <v>20061231</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -7905,11 +7889,11 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Abuja</t>
+          <t>Nouakchott</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -7942,18 +7926,18 @@
         </is>
       </c>
       <c r="AM64" t="n">
-        <v>0</v>
+        <v>22.3</v>
       </c>
       <c r="AN64" t="inlineStr"/>
       <c r="AO64" t="n">
-        <v>21.2</v>
+        <v>3.1</v>
       </c>
       <c r="AP64" t="n">
-        <v>343.1</v>
+        <v>7.86</v>
       </c>
       <c r="AQ64" t="inlineStr">
         <is>
-          <t>65125_amma.csv</t>
+          <t>61442_amma.csv</t>
         </is>
       </c>
       <c r="AR64" t="inlineStr">
@@ -7968,7 +7952,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0-20000-0-61052</t>
+          <t>0-20000-0-61024</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -7978,14 +7962,14 @@
         <v>64</v>
       </c>
       <c r="E65" t="n">
-        <v>61052</v>
+        <v>61024</v>
       </c>
       <c r="F65" t="n">
         <v>3</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>NIAMEY-AERO</t>
+          <t>AGADEZ</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -7994,17 +7978,17 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>2.166666666666667</v>
+        <v>7.983333333333333</v>
       </c>
       <c r="L65" t="n">
-        <v>13.48333333333333</v>
+        <v>16.96666666666667</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
-        <v>20060118</v>
+        <v>20060120</v>
       </c>
       <c r="O65" t="n">
-        <v>20061231</v>
+        <v>20061010</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -8025,7 +8009,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Niamey</t>
+          <t>Agadez</t>
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
@@ -8062,14 +8046,14 @@
       </c>
       <c r="AN65" t="inlineStr"/>
       <c r="AO65" t="n">
-        <v>7.1</v>
+        <v>1.2</v>
       </c>
       <c r="AP65" t="n">
-        <v>227</v>
+        <v>502</v>
       </c>
       <c r="AQ65" t="inlineStr">
         <is>
-          <t>61052_amma.csv</t>
+          <t>61024_amma.csv</t>
         </is>
       </c>
       <c r="AR65" t="inlineStr">
@@ -8200,7 +8184,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0-20000-0-65344</t>
+          <t>0-20000-0-65330</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -8210,14 +8194,14 @@
         <v>66</v>
       </c>
       <c r="E67" t="n">
-        <v>65344</v>
+        <v>65330</v>
       </c>
       <c r="F67" t="n">
         <v>3</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>COTONOU</t>
+          <t>PARAKOU</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -8226,17 +8210,17 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>2.383333333333333</v>
+        <v>2.616666666666667</v>
       </c>
       <c r="L67" t="n">
-        <v>6.35</v>
+        <v>9.35</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
         <v>20060101</v>
       </c>
       <c r="O67" t="n">
-        <v>20061213</v>
+        <v>20061231</v>
       </c>
       <c r="P67" t="n">
         <v>1</v>
@@ -8257,7 +8241,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Cotonou</t>
+          <t>Parakou</t>
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
@@ -8294,14 +8278,14 @@
       </c>
       <c r="AN67" t="inlineStr"/>
       <c r="AO67" t="n">
-        <v>5.9</v>
+        <v>0.4</v>
       </c>
       <c r="AP67" t="n">
-        <v>9</v>
+        <v>393</v>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>65344_amma.csv</t>
+          <t>65330_amma.csv</t>
         </is>
       </c>
       <c r="AR67" t="inlineStr">
@@ -8316,7 +8300,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0-20000-0-65330</t>
+          <t>0-20000-0-61052</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -8326,14 +8310,14 @@
         <v>67</v>
       </c>
       <c r="E68" t="n">
-        <v>65330</v>
+        <v>61052</v>
       </c>
       <c r="F68" t="n">
         <v>3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PARAKOU</t>
+          <t>NIAMEY-AERO</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -8342,14 +8326,14 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>2.616666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="L68" t="n">
-        <v>9.35</v>
+        <v>13.48333333333333</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
-        <v>20060101</v>
+        <v>20060118</v>
       </c>
       <c r="O68" t="n">
         <v>20061231</v>
@@ -8369,11 +8353,11 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Parakou</t>
+          <t>Niamey</t>
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
@@ -8406,21 +8390,137 @@
         </is>
       </c>
       <c r="AM68" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AN68" t="inlineStr"/>
       <c r="AO68" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>227</v>
+      </c>
+      <c r="AQ68" t="inlineStr">
+        <is>
+          <t>61052_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR68" t="inlineStr">
+        <is>
+          <t>OSCAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0-20000-0-65344</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="n">
+        <v>65344</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>COTONOU</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2.383333333333333</v>
+      </c>
+      <c r="L69" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
+        <v>20060101</v>
+      </c>
+      <c r="O69" t="n">
+        <v>20061213</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>63</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>NMS</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>25</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Cotonou</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>['126', '137', '106', '107', '117']</t>
+        </is>
+      </c>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>L.Haimberger</t>
+        </is>
+      </c>
+      <c r="AL69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM69" t="n">
         <v>0.4</v>
       </c>
-      <c r="AP68" t="n">
-        <v>393</v>
-      </c>
-      <c r="AQ68" t="inlineStr">
-        <is>
-          <t>65330_amma.csv</t>
-        </is>
-      </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AN69" t="inlineStr"/>
+      <c r="AO69" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ69" t="inlineStr">
+        <is>
+          <t>65344_amma.csv</t>
+        </is>
+      </c>
+      <c r="AR69" t="inlineStr">
         <is>
           <t>OSCAR</t>
         </is>
